--- a/NIFTY/STOCK.xlsx
+++ b/NIFTY/STOCK.xlsx
@@ -7,14 +7,27 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Nifty Index stock" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="17" r:id="rId2"/>
+    <sheet name="Pivot-Chart" sheetId="19" r:id="rId1"/>
+    <sheet name="Nifty Index stock" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="17" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Nifty Index stock'!$A$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Nifty Index stock'!$A$1:$H$1</definedName>
+    <definedName name="Slicer_Industry">#N/A</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <pivotCaches>
+    <pivotCache cacheId="9" r:id="rId4"/>
+  </pivotCaches>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
+      <x14:slicerCaches>
+        <x14:slicerCache r:id="rId5"/>
+      </x14:slicerCaches>
+    </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -23,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1938" uniqueCount="1081">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1958" uniqueCount="1085">
   <si>
     <t xml:space="preserve">SYMBOL 
 </t>
@@ -3272,6 +3285,19 @@
   </si>
   <si>
     <t>Company name</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Sum of VALUE  in cr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sum of LTP 
+</t>
   </si>
 </sst>
 </file>
@@ -3315,13 +3341,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3337,6 +3368,4334 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1933575</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Industry"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Industry"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="104775" y="85725"/>
+              <a:ext cx="1828800" cy="3933825"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-IN" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Author" refreshedDate="45077.922957291667" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="200">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:J201" sheet="Nifty Index stock"/>
+  </cacheSource>
+  <cacheFields count="10">
+    <cacheField name="SYMBOL _x000a_" numFmtId="0">
+      <sharedItems count="180">
+        <s v="NIFTY AUTO"/>
+        <s v="MARUTI"/>
+        <s v="TATAMOTORS"/>
+        <s v="ASHOKLEY"/>
+        <s v="BAJAJ-AUTO"/>
+        <s v="M&amp;M"/>
+        <s v="TVSMOTOR"/>
+        <s v="EICHERMOT"/>
+        <s v="MRF"/>
+        <s v="SONACOMS"/>
+        <s v="HEROMOTOCO"/>
+        <s v="BHARATFORG"/>
+        <s v="MOTHERSON"/>
+        <s v="BALKRISIND"/>
+        <s v="TIINDIA"/>
+        <s v="BOSCHLTD"/>
+        <s v="NIFTY PSU BANK"/>
+        <s v="SBIN"/>
+        <s v="BANKBARODA"/>
+        <s v="PNB"/>
+        <s v="CANBK"/>
+        <s v="UCOBANK"/>
+        <s v="BANKINDIA"/>
+        <s v="UNIONBANK"/>
+        <s v="INDIANB"/>
+        <s v="MAHABANK"/>
+        <s v="IOB"/>
+        <s v="CENTRALBK"/>
+        <s v="PSB"/>
+        <s v="NIFTY PRIVATE BANK"/>
+        <s v="HDFCBANK"/>
+        <s v="ICICIBANK"/>
+        <s v="KOTAKBANK"/>
+        <s v="AXISBANK"/>
+        <s v="BANDHANBNK"/>
+        <s v="INDUSINDBK"/>
+        <s v="FEDERALBNK"/>
+        <s v="IDFCFIRSTB"/>
+        <s v="RBLBANK"/>
+        <s v="CUB"/>
+        <s v="NIFTY FMCG"/>
+        <s v="ITC"/>
+        <s v="VBL"/>
+        <s v="HINDUNILVR"/>
+        <s v="BRITANNIA"/>
+        <s v="DABUR"/>
+        <s v="NESTLEIND"/>
+        <s v="MCDOWELL-N"/>
+        <s v="TATACONSUM"/>
+        <s v="UBL"/>
+        <s v="MARICO"/>
+        <s v="GODREJCP"/>
+        <s v="COLPAL"/>
+        <s v="PGHH"/>
+        <s v="RADICO"/>
+        <s v="EMAMILTD"/>
+        <s v="NIFTY IT"/>
+        <s v="INFY"/>
+        <s v="TCS"/>
+        <s v="LTIM"/>
+        <s v="PERSISTENT"/>
+        <s v="TECHM"/>
+        <s v="WIPRO"/>
+        <s v="HCLTECH"/>
+        <s v="LTTS"/>
+        <s v="COFORGE"/>
+        <s v="MPHASIS"/>
+        <s v="NIFTY FINANCIAL SERVICES 25/50"/>
+        <s v="HDFC"/>
+        <s v="BAJFINANCE"/>
+        <s v="CHOLAFIN"/>
+        <s v="BAJAJFINSV"/>
+        <s v="SHRIRAMFIN"/>
+        <s v="MUTHOOTFIN"/>
+        <s v="SBILIFE"/>
+        <s v="ICICIGI"/>
+        <s v="HDFCLIFE"/>
+        <s v="PFC"/>
+        <s v="RECLTD"/>
+        <s v="SBICARD"/>
+        <s v="HDFCAMC"/>
+        <s v="IEX"/>
+        <s v="ICICIPRULI"/>
+        <s v="NIFTY HEALTHCARE INDEX"/>
+        <s v="MAXHEALTH"/>
+        <s v="BIOCON"/>
+        <s v="LAURUSLABS"/>
+        <s v="SUNPHARMA"/>
+        <s v="DIVISLAB"/>
+        <s v="DRREDDY"/>
+        <s v="APOLLOHOSP"/>
+        <s v="CIPLA"/>
+        <s v="GLENMARK"/>
+        <s v="ALKEM"/>
+        <s v="TORNTPHARM"/>
+        <s v="SYNGENE"/>
+        <s v="LUPIN"/>
+        <s v="LALPATHLAB"/>
+        <s v="ZYDUSLIFE"/>
+        <s v="AUROPHARMA"/>
+        <s v="ABBOTINDIA"/>
+        <s v="GRANULES"/>
+        <s v="IPCALAB"/>
+        <s v="METROPOLIS"/>
+        <s v="NIFTY CONSUMER DURABLES"/>
+        <s v="DIXON"/>
+        <s v="CROMPTON"/>
+        <s v="TITAN"/>
+        <s v="VOLTAS"/>
+        <s v="AMBER"/>
+        <s v="HAVELLS"/>
+        <s v="BLUESTARCO"/>
+        <s v="BATAINDIA"/>
+        <s v="RAJESHEXPO"/>
+        <s v="KAJARIACER"/>
+        <s v="WHIRLPOOL"/>
+        <s v="ORIENTELEC"/>
+        <s v="TTKPRESTIG"/>
+        <s v="RELAXO"/>
+        <s v="VGUARD"/>
+        <s v="NIFTY REALTY"/>
+        <s v="IBREALEST"/>
+        <s v="DLF"/>
+        <s v="LODHA"/>
+        <s v="OBEROIRLTY"/>
+        <s v="GODREJPROP"/>
+        <s v="PRESTIGE"/>
+        <s v="SOBHA"/>
+        <s v="PHOENIXLTD"/>
+        <s v="BRIGADE"/>
+        <s v="MAHLIFE"/>
+        <s v="NIFTY MEDIA"/>
+        <s v="ZEEL"/>
+        <s v="TV18BRDCST"/>
+        <s v="PVRINOX"/>
+        <s v="NDTV"/>
+        <s v="NETWORK18"/>
+        <s v="NAZARA"/>
+        <s v="SUNTV"/>
+        <s v="DISHTV"/>
+        <s v="HATHWAY"/>
+        <s v="NAVNETEDUL"/>
+        <s v="NIFTY METAL"/>
+        <s v="ADANIENT"/>
+        <s v="VEDL"/>
+        <s v="HINDALCO"/>
+        <s v="TATASTEEL"/>
+        <s v="JINDALSTEL"/>
+        <s v="NMDC"/>
+        <s v="JSWSTEEL"/>
+        <s v="APLAPOLLO"/>
+        <s v="SAIL"/>
+        <s v="NATIONALUM"/>
+        <s v="JSL"/>
+        <s v="RATNAMANI"/>
+        <s v="HINDCOPPER"/>
+        <s v="WELCORP"/>
+        <s v="HINDZINC"/>
+        <s v="NIFTY OIL &amp; GAS"/>
+        <s v="RELIANCE"/>
+        <s v="ATGL"/>
+        <s v="IOC"/>
+        <s v="ONGC"/>
+        <s v="BPCL"/>
+        <s v="GAIL"/>
+        <s v="IGL"/>
+        <s v="GUJGASLTD"/>
+        <s v="HINDPETRO"/>
+        <s v="OIL"/>
+        <s v="PETRONET"/>
+        <s v="MGL"/>
+        <s v="AEGISCHEM"/>
+        <s v="GSPL"/>
+        <s v="CASTROLIND"/>
+        <s v="NIFTY PHARMA"/>
+        <s v="GLAND"/>
+        <s v="SANOFI"/>
+        <s v="NATCOPHARM"/>
+        <s v="GLAXO"/>
+        <s v="PFIZER"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Company name" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="LTP _x000a_" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="13.85" maxValue="95563.25"/>
+    </cacheField>
+    <cacheField name="VALUE " numFmtId="4">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="18115379.699999999" maxValue="90307818361.410004"/>
+    </cacheField>
+    <cacheField name="52W H _x000a_" numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" minValue="19.649999999999999" maxValue="99933.5" count="180">
+        <n v="14082.45"/>
+        <n v="9769"/>
+        <n v="537.15"/>
+        <n v="169.45"/>
+        <n v="4628.8500000000004"/>
+        <n v="1397"/>
+        <n v="1279"/>
+        <n v="3889.65"/>
+        <n v="99933.5"/>
+        <n v="609"/>
+        <n v="2938.6"/>
+        <n v="919.45"/>
+        <n v="91.67"/>
+        <n v="2450"/>
+        <n v="3046.2"/>
+        <n v="19850.400000000001"/>
+        <n v="4617.3999999999996"/>
+        <n v="629.54999999999995"/>
+        <n v="197.2"/>
+        <n v="62"/>
+        <n v="341.7"/>
+        <n v="38.15"/>
+        <n v="103.5"/>
+        <n v="96.4"/>
+        <n v="335"/>
+        <n v="36.25"/>
+        <n v="36.700000000000003"/>
+        <n v="41.8"/>
+        <n v="44.75"/>
+        <n v="22491.65"/>
+        <n v="1734.45"/>
+        <n v="958.85"/>
+        <n v="1997.55"/>
+        <n v="970"/>
+        <n v="335.5"/>
+        <n v="1275.9000000000001"/>
+        <n v="143.4"/>
+        <n v="68.2"/>
+        <n v="189.3"/>
+        <n v="205"/>
+        <n v="49756.15"/>
+        <n v="434.75"/>
+        <n v="1654"/>
+        <n v="2741.6"/>
+        <n v="4700"/>
+        <n v="610.75"/>
+        <n v="22300"/>
+        <n v="951.8"/>
+        <n v="861.15"/>
+        <n v="1806.45"/>
+        <n v="554.35"/>
+        <n v="1031.8499999999999"/>
+        <n v="1714.45"/>
+        <n v="15500"/>
+        <n v="1230"/>
+        <n v="524"/>
+        <n v="31587.35"/>
+        <n v="1672.6"/>
+        <n v="3575"/>
+        <n v="5107.75"/>
+        <n v="5135"/>
+        <n v="1197"/>
+        <n v="488"/>
+        <n v="1156.6500000000001"/>
+        <n v="4318.7"/>
+        <n v="4512"/>
+        <n v="2700"/>
+        <s v="-"/>
+        <n v="2867"/>
+        <n v="7778"/>
+        <n v="1069.8"/>
+        <n v="1844"/>
+        <n v="1509"/>
+        <n v="1213.95"/>
+        <n v="1340.35"/>
+        <n v="1369"/>
+        <n v="620.6"/>
+        <n v="177.45"/>
+        <n v="140.80000000000001"/>
+        <n v="1028.6500000000001"/>
+        <n v="2314.65"/>
+        <n v="198.2"/>
+        <n v="608.75"/>
+        <n v="9275.15"/>
+        <n v="564.75"/>
+        <n v="344"/>
+        <n v="605.5"/>
+        <n v="1072.1500000000001"/>
+        <n v="4438.8"/>
+        <n v="4989"/>
+        <n v="4901.95"/>
+        <n v="1185.25"/>
+        <n v="629.85"/>
+        <n v="3625"/>
+        <n v="1750"/>
+        <n v="718.9"/>
+        <n v="800"/>
+        <n v="2750"/>
+        <n v="530.85"/>
+        <n v="648.20000000000005"/>
+        <n v="23140"/>
+        <n v="381"/>
+        <n v="1034.3"/>
+        <n v="1825"/>
+        <n v="30892.400000000001"/>
+        <n v="4670"/>
+        <n v="429"/>
+        <n v="2802.1"/>
+        <n v="1064.95"/>
+        <n v="2794"/>
+        <n v="1405.55"/>
+        <n v="1615"/>
+        <n v="2004.9"/>
+        <n v="1029.7"/>
+        <n v="1282.6500000000001"/>
+        <n v="1905"/>
+        <n v="301.85000000000002"/>
+        <n v="1049.9000000000001"/>
+        <n v="1107"/>
+        <n v="274.89999999999998"/>
+        <n v="483.55"/>
+        <n v="94.5"/>
+        <n v="481.15"/>
+        <n v="1189"/>
+        <n v="1088.95"/>
+        <n v="1529.95"/>
+        <n v="520"/>
+        <n v="750.85"/>
+        <n v="1624"/>
+        <n v="585"/>
+        <n v="550.75"/>
+        <n v="2236.1"/>
+        <n v="287"/>
+        <n v="47.25"/>
+        <n v="2214.85"/>
+        <n v="573"/>
+        <n v="82.55"/>
+        <n v="789"/>
+        <n v="568.5"/>
+        <n v="24.4"/>
+        <n v="19.649999999999999"/>
+        <n v="151"/>
+        <n v="6919.6"/>
+        <n v="4190"/>
+        <n v="340.75"/>
+        <n v="504"/>
+        <n v="124.3"/>
+        <n v="622.75"/>
+        <n v="137.44999999999999"/>
+        <n v="777.5"/>
+        <n v="1337.9"/>
+        <n v="93.9"/>
+        <n v="97.95"/>
+        <n v="329"/>
+        <n v="2528"/>
+        <n v="132.35"/>
+        <n v="298.5"/>
+        <n v="383"/>
+        <n v="8671.35"/>
+        <n v="2817.35"/>
+        <n v="4000"/>
+        <n v="89.9"/>
+        <n v="169"/>
+        <n v="374.9"/>
+        <n v="113.95"/>
+        <n v="515.70000000000005"/>
+        <n v="577.95000000000005"/>
+        <n v="269"/>
+        <n v="306"/>
+        <n v="242.4"/>
+        <n v="1103"/>
+        <n v="410.5"/>
+        <n v="298.64999999999998"/>
+        <n v="136.80000000000001"/>
+        <n v="13736.05"/>
+        <n v="3179.35"/>
+        <n v="7035.95"/>
+        <n v="778.9"/>
+        <n v="1570"/>
+        <n v="4660"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="52W L _x000a_" numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" minValue="10.199999999999999" maxValue="65878.350000000006" count="179">
+        <n v="10684.65"/>
+        <n v="7555"/>
+        <n v="375.2"/>
+        <n v="128.19999999999999"/>
+        <n v="3461.25"/>
+        <n v="910.25"/>
+        <n v="685.35"/>
+        <n v="2585.0500000000002"/>
+        <n v="65878.350000000006"/>
+        <n v="398.05"/>
+        <n v="2246"/>
+        <n v="615"/>
+        <n v="61.8"/>
+        <n v="1796.3"/>
+        <n v="1457.6"/>
+        <n v="13165"/>
+        <n v="2283.85"/>
+        <n v="430.7"/>
+        <n v="89.85"/>
+        <n v="28.05"/>
+        <n v="171.75"/>
+        <n v="10.55"/>
+        <n v="40.4"/>
+        <n v="34"/>
+        <n v="140"/>
+        <n v="15"/>
+        <n v="15.25"/>
+        <n v="16.25"/>
+        <n v="13"/>
+        <n v="16280.15"/>
+        <n v="1271.5999999999999"/>
+        <n v="669.95"/>
+        <n v="1631"/>
+        <n v="618.25"/>
+        <n v="182.15"/>
+        <n v="763.2"/>
+        <n v="82.5"/>
+        <n v="28.95"/>
+        <n v="74.150000000000006"/>
+        <n v="120.35"/>
+        <n v="36024.050000000003"/>
+        <n v="258.55"/>
+        <n v="696.27"/>
+        <n v="2100"/>
+        <n v="3270.95"/>
+        <n v="482.25"/>
+        <n v="16435"/>
+        <n v="712"/>
+        <n v="686.6"/>
+        <n v="1353.5"/>
+        <n v="462.7"/>
+        <n v="708.5"/>
+        <n v="1434.6"/>
+        <n v="12960"/>
+        <n v="760.6"/>
+        <n v="340.55"/>
+        <n v="26184.45"/>
+        <n v="1185.3"/>
+        <n v="2926.1"/>
+        <n v="4121"/>
+        <n v="3092.05"/>
+        <n v="943.7"/>
+        <n v="352"/>
+        <n v="877.35"/>
+        <n v="2924.2"/>
+        <n v="3210.05"/>
+        <n v="1660.05"/>
+        <s v="-"/>
+        <n v="2026"/>
+        <n v="5220"/>
+        <n v="600"/>
+        <n v="1072.72"/>
+        <n v="1100"/>
+        <n v="911.25"/>
+        <n v="1051.55"/>
+        <n v="1049.05"/>
+        <n v="457.8"/>
+        <n v="97.1"/>
+        <n v="82.24"/>
+        <n v="655.7"/>
+        <n v="1589.5"/>
+        <n v="125.8"/>
+        <n v="380.7"/>
+        <n v="6482.8"/>
+        <n v="344.4"/>
+        <n v="191.55"/>
+        <n v="278.85000000000002"/>
+        <n v="789.9"/>
+        <n v="2730"/>
+        <n v="3997"/>
+        <n v="3361.55"/>
+        <n v="852"/>
+        <n v="348.5"/>
+        <n v="2855"/>
+        <n v="1276.3"/>
+        <n v="510.05"/>
+        <n v="583"/>
+        <n v="1762.05"/>
+        <n v="329.8"/>
+        <n v="397.2"/>
+        <n v="17325"/>
+        <n v="226.95"/>
+        <n v="669.8"/>
+        <n v="1171.3499999999999"/>
+        <n v="14089.55"/>
+        <n v="2553"/>
+        <n v="251"/>
+        <n v="1825.05"/>
+        <n v="737.2"/>
+        <n v="1762.5"/>
+        <n v="1024.5"/>
+        <n v="859.05"/>
+        <n v="1381.05"/>
+        <n v="518.5"/>
+        <n v="898"/>
+        <n v="1217.25"/>
+        <n v="215.65"/>
+        <n v="652.35"/>
+        <n v="748"/>
+        <n v="204"/>
+        <n v="365.75"/>
+        <n v="45.9"/>
+        <n v="294.7"/>
+        <n v="711"/>
+        <n v="725.95"/>
+        <n v="1005"/>
+        <n v="379"/>
+        <n v="412.1"/>
+        <n v="989.8"/>
+        <n v="426.45"/>
+        <n v="316"/>
+        <n v="1636.65"/>
+        <n v="176.55"/>
+        <n v="27.35"/>
+        <n v="1336.4"/>
+        <n v="148"/>
+        <n v="45"/>
+        <n v="475.05"/>
+        <n v="393.8"/>
+        <n v="10.199999999999999"/>
+        <n v="12.25"/>
+        <n v="83"/>
+        <n v="4437.3"/>
+        <n v="1017.45"/>
+        <n v="206"/>
+        <n v="308.95"/>
+        <n v="82.7"/>
+        <n v="304.2"/>
+        <n v="92.25"/>
+        <n v="520.04999999999995"/>
+        <n v="816.5"/>
+        <n v="63.6"/>
+        <n v="66.95"/>
+        <n v="95.05"/>
+        <n v="1437.33"/>
+        <n v="81.2"/>
+        <n v="177.65"/>
+        <n v="242.05"/>
+        <n v="4632.7"/>
+        <n v="2180"/>
+        <n v="633.35"/>
+        <n v="65.2"/>
+        <n v="119.85"/>
+        <n v="288.05"/>
+        <n v="335.35"/>
+        <n v="403.55"/>
+        <n v="200.05"/>
+        <n v="167.85"/>
+        <n v="195.4"/>
+        <n v="665.8"/>
+        <n v="197.55"/>
+        <n v="209.45"/>
+        <n v="101.1"/>
+        <n v="11542.45"/>
+        <n v="861"/>
+        <n v="5202.1000000000004"/>
+        <n v="502"/>
+        <n v="1227"/>
+        <n v="3408"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="365 D % CHNG _x000a_ 20-May-2022" numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" minValue="-89.68" maxValue="135.41999999999999" count="176">
+        <n v="25.8"/>
+        <n v="16.5"/>
+        <n v="25.4"/>
+        <n v="12.08"/>
+        <n v="18.8"/>
+        <n v="34.68"/>
+        <n v="81.23"/>
+        <n v="31.38"/>
+        <n v="30.12"/>
+        <n v="-1.71"/>
+        <n v="3.27"/>
+        <n v="11.32"/>
+        <s v="-"/>
+        <n v="15.72"/>
+        <n v="70.67"/>
+        <n v="33.130000000000003"/>
+        <n v="61.53"/>
+        <n v="26.19"/>
+        <n v="88.68"/>
+        <n v="65.36"/>
+        <n v="58.43"/>
+        <n v="127.39"/>
+        <n v="61.34"/>
+        <n v="90.96"/>
+        <n v="82.35"/>
+        <n v="85.23"/>
+        <n v="41.72"/>
+        <n v="52.3"/>
+        <n v="100.65"/>
+        <n v="28.16"/>
+        <n v="25.55"/>
+        <n v="34.08"/>
+        <n v="3.62"/>
+        <n v="35.659999999999997"/>
+        <n v="-19.16"/>
+        <n v="39.65"/>
+        <n v="47.65"/>
+        <n v="85.27"/>
+        <n v="27.72"/>
+        <n v="11.96"/>
+        <n v="27.55"/>
+        <n v="56.34"/>
+        <n v="44.19"/>
+        <n v="10.44"/>
+        <n v="29.67"/>
+        <n v="3.84"/>
+        <n v="25.95"/>
+        <n v="4.87"/>
+        <n v="5.53"/>
+        <n v="-3.62"/>
+        <n v="-0.88"/>
+        <n v="34.97"/>
+        <n v="0.03"/>
+        <n v="0.54"/>
+        <n v="40.44"/>
+        <n v="-5.32"/>
+        <n v="-0.71"/>
+        <n v="-11.46"/>
+        <n v="-0.74"/>
+        <n v="30.77"/>
+        <n v="-4.58"/>
+        <n v="-14.67"/>
+        <n v="8.74"/>
+        <n v="9.6300000000000008"/>
+        <n v="11.71"/>
+        <n v="-22.85"/>
+        <n v="21.65"/>
+        <n v="24.35"/>
+        <n v="17.03"/>
+        <n v="62.83"/>
+        <n v="-88.57"/>
+        <n v="-2.87"/>
+        <n v="8.2799999999999994"/>
+        <n v="-11.16"/>
+        <n v="2.1"/>
+        <n v="52.48"/>
+        <n v="9.66"/>
+        <n v="18.399999999999999"/>
+        <n v="1.8"/>
+        <n v="-19.170000000000002"/>
+        <n v="-13.33"/>
+        <n v="1.1399999999999999"/>
+        <n v="51.22"/>
+        <n v="-28.37"/>
+        <n v="-45.08"/>
+        <n v="1.04"/>
+        <n v="-13.14"/>
+        <n v="4.34"/>
+        <n v="22.42"/>
+        <n v="-4.09"/>
+        <n v="50.69"/>
+        <n v="9.09"/>
+        <n v="-35.369999999999997"/>
+        <n v="24.88"/>
+        <n v="25.6"/>
+        <n v="2.2999999999999998"/>
+        <n v="39.99"/>
+        <n v="8"/>
+        <n v="21.26"/>
+        <n v="-1.59"/>
+        <n v="-29.54"/>
+        <n v="-28.44"/>
+        <n v="2.92"/>
+        <n v="-6.65"/>
+        <n v="-21.86"/>
+        <n v="24.74"/>
+        <n v="-19.07"/>
+        <n v="-22.57"/>
+        <n v="0.35"/>
+        <n v="34.479999999999997"/>
+        <n v="-13.46"/>
+        <n v="3.1"/>
+        <n v="20.6"/>
+        <n v="-11.4"/>
+        <n v="-20.32"/>
+        <n v="-13.88"/>
+        <n v="-13"/>
+        <n v="11.67"/>
+        <n v="16.329999999999998"/>
+        <n v="-22.82"/>
+        <n v="41.39"/>
+        <n v="5.8"/>
+        <n v="17.489999999999998"/>
+        <n v="2.21"/>
+        <n v="13.29"/>
+        <n v="-0.46"/>
+        <n v="28.32"/>
+        <n v="16.72"/>
+        <n v="2.14"/>
+        <n v="-15.75"/>
+        <n v="-22.87"/>
+        <n v="-18.54"/>
+        <n v="22.2"/>
+        <n v="-25.3"/>
+        <n v="-48.98"/>
+        <n v="4.5"/>
+        <n v="7.04"/>
+        <n v="-25.63"/>
+        <n v="33.86"/>
+        <n v="13.47"/>
+        <n v="21.33"/>
+        <n v="-5.66"/>
+        <n v="-0.69"/>
+        <n v="-89.68"/>
+        <n v="31.68"/>
+        <n v="-17.48"/>
+        <n v="28.59"/>
+        <n v="30.5"/>
+        <n v="11.7"/>
+        <n v="-15.02"/>
+        <n v="135.41999999999999"/>
+        <n v="-6.18"/>
+        <n v="6.69"/>
+        <n v="7.33"/>
+        <n v="2.77"/>
+        <n v="-3.74"/>
+        <n v="-5.84"/>
+        <n v="-67.459999999999994"/>
+        <n v="-24.38"/>
+        <n v="6.38"/>
+        <n v="10.39"/>
+        <n v="-29.83"/>
+        <n v="28.43"/>
+        <n v="-12.02"/>
+        <n v="10.91"/>
+        <n v="16.02"/>
+        <n v="-0.27"/>
+        <n v="36.28"/>
+        <n v="70.13"/>
+        <n v="9.4"/>
+        <n v="5.76"/>
+        <n v="-4.46"/>
+        <n v="-68.45"/>
+        <n v="-4.17"/>
+        <n v="-11.9"/>
+        <n v="-15.66"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="30 D % CHNG _x000a_ 21-Apr-2023" numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" minValue="-28.2" maxValue="46.07"/>
+    </cacheField>
+    <cacheField name="VALUE  in cr" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.8115379699999998" maxValue="9030.7818361410009" count="180">
+        <n v="2418.0165173790001"/>
+        <n v="436.37877692500001"/>
+        <n v="400.53298479599999"/>
+        <n v="339.47273409100001"/>
+        <n v="178.960706496"/>
+        <n v="173.73914195399999"/>
+        <n v="135.57198842100001"/>
+        <n v="135.021668097"/>
+        <n v="130.86874133499998"/>
+        <n v="128.35576490399998"/>
+        <n v="109.80906459000001"/>
+        <n v="72.545551140000001"/>
+        <n v="67.266768808999998"/>
+        <n v="53.994063424000004"/>
+        <n v="32.625713867000002"/>
+        <n v="22.872848530000002"/>
+        <n v="1693.899984014"/>
+        <n v="1027.1568613479999"/>
+        <n v="231.88487587699998"/>
+        <n v="130.27937369599999"/>
+        <n v="99.107027787999996"/>
+        <n v="50.651576583000001"/>
+        <n v="34.92445721"/>
+        <n v="34.319851495000002"/>
+        <n v="31.413334211999999"/>
+        <n v="27.089409788999998"/>
+        <n v="12.868565248000001"/>
+        <n v="9.6498174080000005"/>
+        <n v="4.5548333599999999"/>
+        <n v="6820.7419817640002"/>
+        <n v="2728.479896152"/>
+        <n v="1711.80791118"/>
+        <n v="683.22853838699996"/>
+        <n v="572.20425983000007"/>
+        <n v="461.56291762000001"/>
+        <n v="351.28647826599996"/>
+        <n v="156.386802902"/>
+        <n v="87.154428182000004"/>
+        <n v="53.132289048000004"/>
+        <n v="15.498460197"/>
+        <n v="1569.946728741"/>
+        <n v="495.88886008199995"/>
+        <n v="180.045122144"/>
+        <n v="164.76635061600001"/>
+        <n v="137.42958087899999"/>
+        <n v="121.21633377000001"/>
+        <n v="94.829380920000006"/>
+        <n v="74.234541653999997"/>
+        <n v="66.417685599999999"/>
+        <n v="61.143820584000004"/>
+        <n v="56.401566408000001"/>
+        <n v="50.015440192"/>
+        <n v="48.047112154000004"/>
+        <n v="8.8339886879999998"/>
+        <n v="6.5402834799999994"/>
+        <n v="4.1366615700000002"/>
+        <n v="2172.3092379479999"/>
+        <n v="626.88398207299997"/>
+        <n v="335.74981851000001"/>
+        <n v="242.04772909299999"/>
+        <n v="200.89547160000001"/>
+        <n v="195.656638345"/>
+        <n v="164.46240813200001"/>
+        <n v="144.58634558399999"/>
+        <n v="133.18892632500001"/>
+        <n v="67.712231742"/>
+        <n v="61.125686544000004"/>
+        <n v="9030.7818361410009"/>
+        <n v="721.81948052999996"/>
+        <n v="376.86094068800003"/>
+        <n v="161.80177384800001"/>
+        <n v="150.30296787999998"/>
+        <n v="136.63513108000001"/>
+        <n v="133.20699797999998"/>
+        <n v="116.8026796"/>
+        <n v="110.86183695999999"/>
+        <n v="86.595930916"/>
+        <n v="71.124367126999999"/>
+        <n v="65.231561736000003"/>
+        <n v="56.284864042999992"/>
+        <n v="52.335518983999997"/>
+        <n v="44.919340848000004"/>
+        <n v="23.120977024000002"/>
+        <n v="2851.1387786949999"/>
+        <n v="726.79601996999997"/>
+        <n v="442.06601413999994"/>
+        <n v="282.95103283200001"/>
+        <n v="279.24270025599998"/>
+        <n v="186.32973240999999"/>
+        <n v="151.86388913599998"/>
+        <n v="103.169808534"/>
+        <n v="96.607463237999994"/>
+        <n v="93.918409199999999"/>
+        <n v="83.727689896000001"/>
+        <n v="80.883650234000001"/>
+        <n v="58.162301282000008"/>
+        <n v="47.887861041000001"/>
+        <n v="46.791339466000004"/>
+        <n v="39.217577274999996"/>
+        <n v="36.909616851999999"/>
+        <n v="34.677269848000002"/>
+        <n v="25.639553648"/>
+        <n v="18.418272759000001"/>
+        <n v="15.878576678"/>
+        <n v="2368.8217939299998"/>
+        <n v="1271.3551238079999"/>
+        <n v="371.97711410400001"/>
+        <n v="220.38627423299999"/>
+        <n v="156.90125583599999"/>
+        <n v="88.444486698000006"/>
+        <n v="71.154386985000002"/>
+        <n v="45.684693469999999"/>
+        <n v="41.351647084"/>
+        <n v="34.719184919999996"/>
+        <n v="26.408006286000003"/>
+        <n v="13.805141318"/>
+        <n v="12.33902164"/>
+        <n v="6.5448166079999996"/>
+        <n v="5.5343306340000007"/>
+        <n v="2.216310306"/>
+        <n v="455.74139887799998"/>
+        <n v="170.27972113499999"/>
+        <n v="143.80797670799998"/>
+        <n v="42.137855520000002"/>
+        <n v="35.399467232999996"/>
+        <n v="24.981733359"/>
+        <n v="11.04667047"/>
+        <n v="10.587843946"/>
+        <n v="9.4240255200000007"/>
+        <n v="5.2475694079999995"/>
+        <n v="2.828535579"/>
+        <n v="460.27132218100002"/>
+        <n v="121.713658143"/>
+        <n v="121.36866560999999"/>
+        <n v="68.44739809299999"/>
+        <n v="48.422912725000003"/>
+        <n v="33.330332289999994"/>
+        <n v="23.659927564"/>
+        <n v="18.29620224"/>
+        <n v="11.92052691"/>
+        <n v="8.8684552760000006"/>
+        <n v="4.2432433299999994"/>
+        <n v="7517.3843096250002"/>
+        <n v="5993.7654691859998"/>
+        <n v="353.04896294499997"/>
+        <n v="319.95382087500002"/>
+        <n v="299.62448451"/>
+        <n v="102.32575484600001"/>
+        <n v="88.752626848999995"/>
+        <n v="83.070591562000004"/>
+        <n v="82.690001639999991"/>
+        <n v="65.24913798"/>
+        <n v="31.254577492999999"/>
+        <n v="25.694896269000001"/>
+        <n v="21.428244630000002"/>
+        <n v="20.851329177"/>
+        <n v="14.906805633999999"/>
+        <n v="14.767606029"/>
+        <n v="2080.1622692419996"/>
+        <n v="916.39711170800001"/>
+        <n v="497.77547248799999"/>
+        <n v="177.84437087999999"/>
+        <n v="101.3008483"/>
+        <n v="68.586303599999994"/>
+        <n v="68.543518758000005"/>
+        <n v="55.240434288000003"/>
+        <n v="44.081608860999999"/>
+        <n v="38.254469399999998"/>
+        <n v="29.952344305"/>
+        <n v="26.982905561999999"/>
+        <n v="23.07848508"/>
+        <n v="19.661131178000002"/>
+        <n v="8.2117660000000008"/>
+        <n v="4.2514988340000004"/>
+        <n v="2009.7604054279998"/>
+        <n v="87.958282169"/>
+        <n v="12.675048559999999"/>
+        <n v="3.9728276719999998"/>
+        <n v="3.0019762920000002"/>
+        <n v="1.8115379699999998"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Industry" numFmtId="0">
+      <sharedItems count="13">
+        <s v="Automobile and Auto Components"/>
+        <s v="PSU BANK"/>
+        <s v="Private bank"/>
+        <s v="FMCG"/>
+        <s v="IT"/>
+        <s v="Financial service"/>
+        <s v="Health-care"/>
+        <s v="coustumer durable"/>
+        <s v="reality"/>
+        <s v="media"/>
+        <s v="metal"/>
+        <s v="oil &amp; gas"/>
+        <s v="pharma"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition pivotCacheId="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="200">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="13989.6"/>
+    <n v="24180165173.790001"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="8.4"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="9277"/>
+    <n v="4363787769.25"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="7.5"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="520.6"/>
+    <n v="4005329847.96"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="12.16"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="151.05000000000001"/>
+    <n v="3394727340.9099998"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="11.71"/>
+    <x v="3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="4511.8999999999996"/>
+    <n v="1789607064.96"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="4.41"/>
+    <x v="4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="1277.0999999999999"/>
+    <n v="1737391419.54"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="4.5999999999999996"/>
+    <x v="5"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="1275.7"/>
+    <n v="1355719884.21"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <n v="15.39"/>
+    <x v="6"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="0"/>
+    <n v="3609.85"/>
+    <n v="1350216680.97"/>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="7"/>
+    <n v="12.53"/>
+    <x v="7"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="0"/>
+    <n v="95563.25"/>
+    <n v="1308687413.3499999"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="8"/>
+    <n v="10.37"/>
+    <x v="8"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="0"/>
+    <n v="532"/>
+    <n v="1283557649.04"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="9"/>
+    <n v="13.62"/>
+    <x v="9"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="0"/>
+    <n v="2735.05"/>
+    <n v="1098090645.9000001"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="10"/>
+    <n v="10.210000000000001"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="0"/>
+    <n v="761.7"/>
+    <n v="725455511.39999998"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <n v="-1.78"/>
+    <x v="11"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="0"/>
+    <n v="81.5"/>
+    <n v="672667688.09000003"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="12"/>
+    <n v="16.27"/>
+    <x v="12"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="0"/>
+    <n v="2372"/>
+    <n v="539940634.24000001"/>
+    <x v="13"/>
+    <x v="13"/>
+    <x v="13"/>
+    <n v="18.34"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="0"/>
+    <n v="2685"/>
+    <n v="326257138.67000002"/>
+    <x v="14"/>
+    <x v="14"/>
+    <x v="14"/>
+    <n v="3.84"/>
+    <x v="14"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="0"/>
+    <n v="18700"/>
+    <n v="228728485.30000001"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="15"/>
+    <n v="0.47"/>
+    <x v="15"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="0"/>
+    <n v="3987.3"/>
+    <n v="16938999840.139999"/>
+    <x v="16"/>
+    <x v="16"/>
+    <x v="16"/>
+    <n v="3.21"/>
+    <x v="16"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="0"/>
+    <n v="582"/>
+    <n v="10271568613.48"/>
+    <x v="17"/>
+    <x v="17"/>
+    <x v="17"/>
+    <n v="7.08"/>
+    <x v="17"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="0"/>
+    <n v="182.5"/>
+    <n v="2318848758.77"/>
+    <x v="18"/>
+    <x v="18"/>
+    <x v="18"/>
+    <n v="3.88"/>
+    <x v="18"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="0"/>
+    <n v="49.85"/>
+    <n v="1302793736.96"/>
+    <x v="19"/>
+    <x v="19"/>
+    <x v="19"/>
+    <n v="4.87"/>
+    <x v="19"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <x v="0"/>
+    <n v="298.95"/>
+    <n v="991070277.88"/>
+    <x v="20"/>
+    <x v="20"/>
+    <x v="20"/>
+    <n v="2.29"/>
+    <x v="20"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="0"/>
+    <n v="26"/>
+    <n v="506515765.82999998"/>
+    <x v="21"/>
+    <x v="21"/>
+    <x v="21"/>
+    <n v="-0.56999999999999995"/>
+    <x v="21"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="0"/>
+    <n v="73.5"/>
+    <n v="349244572.10000002"/>
+    <x v="22"/>
+    <x v="22"/>
+    <x v="22"/>
+    <n v="-3.18"/>
+    <x v="22"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <x v="0"/>
+    <n v="69"/>
+    <n v="343198514.94999999"/>
+    <x v="23"/>
+    <x v="23"/>
+    <x v="23"/>
+    <n v="-2.2400000000000002"/>
+    <x v="23"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <x v="0"/>
+    <n v="285.39999999999998"/>
+    <n v="314133342.12"/>
+    <x v="24"/>
+    <x v="24"/>
+    <x v="24"/>
+    <n v="-5.46"/>
+    <x v="24"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <x v="0"/>
+    <n v="29.35"/>
+    <n v="270894097.88999999"/>
+    <x v="25"/>
+    <x v="25"/>
+    <x v="25"/>
+    <n v="8.08"/>
+    <x v="25"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <x v="0"/>
+    <n v="23.8"/>
+    <n v="128685652.48"/>
+    <x v="26"/>
+    <x v="26"/>
+    <x v="26"/>
+    <n v="2.57"/>
+    <x v="26"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <x v="0"/>
+    <n v="26.2"/>
+    <n v="96498174.079999998"/>
+    <x v="27"/>
+    <x v="27"/>
+    <x v="27"/>
+    <n v="0.76"/>
+    <x v="27"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <x v="0"/>
+    <n v="30.75"/>
+    <n v="45548333.600000001"/>
+    <x v="28"/>
+    <x v="28"/>
+    <x v="28"/>
+    <n v="0.82"/>
+    <x v="28"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <x v="0"/>
+    <n v="22170.400000000001"/>
+    <n v="68207419817.639999"/>
+    <x v="29"/>
+    <x v="29"/>
+    <x v="29"/>
+    <n v="4.62"/>
+    <x v="29"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <x v="0"/>
+    <n v="1615"/>
+    <n v="27284798961.52"/>
+    <x v="30"/>
+    <x v="30"/>
+    <x v="30"/>
+    <n v="-2.23"/>
+    <x v="30"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <x v="0"/>
+    <n v="941.1"/>
+    <n v="17118079111.799999"/>
+    <x v="31"/>
+    <x v="31"/>
+    <x v="31"/>
+    <n v="7.65"/>
+    <x v="31"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="0"/>
+    <n v="1908.3"/>
+    <n v="6832285383.8699999"/>
+    <x v="32"/>
+    <x v="32"/>
+    <x v="32"/>
+    <n v="1.47"/>
+    <x v="32"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="33"/>
+    <x v="0"/>
+    <n v="918"/>
+    <n v="5722042598.3000002"/>
+    <x v="33"/>
+    <x v="33"/>
+    <x v="33"/>
+    <n v="6.01"/>
+    <x v="33"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <x v="0"/>
+    <n v="260.2"/>
+    <n v="4615629176.1999998"/>
+    <x v="34"/>
+    <x v="34"/>
+    <x v="34"/>
+    <n v="15.1"/>
+    <x v="34"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="0"/>
+    <n v="1273.5"/>
+    <n v="3512864782.6599998"/>
+    <x v="35"/>
+    <x v="35"/>
+    <x v="35"/>
+    <n v="12.89"/>
+    <x v="35"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="36"/>
+    <x v="0"/>
+    <n v="123.4"/>
+    <n v="1563868029.02"/>
+    <x v="36"/>
+    <x v="36"/>
+    <x v="36"/>
+    <n v="-4.08"/>
+    <x v="36"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <x v="0"/>
+    <n v="66.150000000000006"/>
+    <n v="871544281.82000005"/>
+    <x v="37"/>
+    <x v="37"/>
+    <x v="37"/>
+    <n v="17.010000000000002"/>
+    <x v="37"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <x v="0"/>
+    <n v="145.35"/>
+    <n v="531322890.48000002"/>
+    <x v="38"/>
+    <x v="38"/>
+    <x v="38"/>
+    <n v="-0.14000000000000001"/>
+    <x v="38"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <x v="0"/>
+    <n v="139.75"/>
+    <n v="154984601.97"/>
+    <x v="39"/>
+    <x v="39"/>
+    <x v="39"/>
+    <n v="8.35"/>
+    <x v="39"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <x v="0"/>
+    <n v="49355.25"/>
+    <n v="15699467287.41"/>
+    <x v="40"/>
+    <x v="40"/>
+    <x v="40"/>
+    <n v="5.25"/>
+    <x v="40"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="41"/>
+    <x v="0"/>
+    <n v="434"/>
+    <n v="4958888600.8199997"/>
+    <x v="41"/>
+    <x v="41"/>
+    <x v="41"/>
+    <n v="5.12"/>
+    <x v="41"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="42"/>
+    <x v="0"/>
+    <n v="1613.05"/>
+    <n v="1800451221.4400001"/>
+    <x v="42"/>
+    <x v="42"/>
+    <x v="42"/>
+    <n v="11.35"/>
+    <x v="42"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="43"/>
+    <x v="0"/>
+    <n v="2615.35"/>
+    <n v="1647663506.1600001"/>
+    <x v="43"/>
+    <x v="43"/>
+    <x v="43"/>
+    <n v="5.22"/>
+    <x v="43"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="44"/>
+    <x v="0"/>
+    <n v="4514.8"/>
+    <n v="1374295808.79"/>
+    <x v="44"/>
+    <x v="44"/>
+    <x v="44"/>
+    <n v="4.4800000000000004"/>
+    <x v="44"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="45"/>
+    <x v="0"/>
+    <n v="528.4"/>
+    <n v="1212163337.7"/>
+    <x v="45"/>
+    <x v="45"/>
+    <x v="45"/>
+    <n v="0.11"/>
+    <x v="45"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="46"/>
+    <x v="0"/>
+    <n v="21409"/>
+    <n v="948293809.20000005"/>
+    <x v="46"/>
+    <x v="46"/>
+    <x v="46"/>
+    <n v="4.42"/>
+    <x v="46"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="47"/>
+    <x v="0"/>
+    <n v="834"/>
+    <n v="742345416.53999996"/>
+    <x v="47"/>
+    <x v="47"/>
+    <x v="47"/>
+    <n v="8.16"/>
+    <x v="47"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="48"/>
+    <x v="0"/>
+    <n v="771"/>
+    <n v="664176856"/>
+    <x v="48"/>
+    <x v="48"/>
+    <x v="48"/>
+    <n v="9.94"/>
+    <x v="48"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="49"/>
+    <x v="0"/>
+    <n v="1425"/>
+    <n v="611438205.84000003"/>
+    <x v="49"/>
+    <x v="49"/>
+    <x v="49"/>
+    <n v="-2.33"/>
+    <x v="49"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="50"/>
+    <x v="0"/>
+    <n v="530.5"/>
+    <n v="564015664.08000004"/>
+    <x v="50"/>
+    <x v="50"/>
+    <x v="50"/>
+    <n v="11.35"/>
+    <x v="50"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="51"/>
+    <x v="0"/>
+    <n v="1019"/>
+    <n v="500154401.92000002"/>
+    <x v="51"/>
+    <x v="51"/>
+    <x v="51"/>
+    <n v="2.89"/>
+    <x v="51"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="52"/>
+    <x v="0"/>
+    <n v="1596.6"/>
+    <n v="480471121.54000002"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="52"/>
+    <n v="2.96"/>
+    <x v="52"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="0"/>
+    <n v="13500"/>
+    <n v="88339886.879999995"/>
+    <x v="53"/>
+    <x v="53"/>
+    <x v="53"/>
+    <n v="-3.2"/>
+    <x v="53"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="54"/>
+    <x v="0"/>
+    <n v="1145"/>
+    <n v="65402834.799999997"/>
+    <x v="54"/>
+    <x v="54"/>
+    <x v="54"/>
+    <n v="3.08"/>
+    <x v="54"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="55"/>
+    <x v="0"/>
+    <n v="389"/>
+    <n v="41366615.700000003"/>
+    <x v="55"/>
+    <x v="55"/>
+    <x v="55"/>
+    <n v="7.93"/>
+    <x v="55"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="56"/>
+    <x v="0"/>
+    <n v="28890.799999999999"/>
+    <n v="21723092379.48"/>
+    <x v="56"/>
+    <x v="56"/>
+    <x v="56"/>
+    <n v="7.65"/>
+    <x v="56"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="57"/>
+    <x v="0"/>
+    <n v="1299.9000000000001"/>
+    <n v="6268839820.7299995"/>
+    <x v="57"/>
+    <x v="57"/>
+    <x v="57"/>
+    <n v="5.92"/>
+    <x v="57"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="58"/>
+    <x v="0"/>
+    <n v="3303.5"/>
+    <n v="3357498185.0999999"/>
+    <x v="58"/>
+    <x v="58"/>
+    <x v="58"/>
+    <n v="4.3099999999999996"/>
+    <x v="58"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="59"/>
+    <x v="0"/>
+    <n v="4840"/>
+    <n v="2420477290.9299998"/>
+    <x v="59"/>
+    <x v="59"/>
+    <x v="12"/>
+    <n v="16.47"/>
+    <x v="59"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="60"/>
+    <x v="0"/>
+    <n v="4980"/>
+    <n v="2008954716"/>
+    <x v="60"/>
+    <x v="60"/>
+    <x v="59"/>
+    <n v="15.08"/>
+    <x v="60"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="61"/>
+    <x v="0"/>
+    <n v="1100"/>
+    <n v="1956566383.45"/>
+    <x v="61"/>
+    <x v="61"/>
+    <x v="60"/>
+    <n v="9.19"/>
+    <x v="61"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="62"/>
+    <x v="0"/>
+    <n v="399.5"/>
+    <n v="1644624081.3199999"/>
+    <x v="62"/>
+    <x v="62"/>
+    <x v="61"/>
+    <n v="8.0399999999999991"/>
+    <x v="62"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="63"/>
+    <x v="0"/>
+    <n v="1109.1500000000001"/>
+    <n v="1445863455.8399999"/>
+    <x v="63"/>
+    <x v="63"/>
+    <x v="62"/>
+    <n v="5.57"/>
+    <x v="63"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="64"/>
+    <x v="0"/>
+    <n v="3799"/>
+    <n v="1331889263.25"/>
+    <x v="64"/>
+    <x v="64"/>
+    <x v="63"/>
+    <n v="15.09"/>
+    <x v="64"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="65"/>
+    <x v="0"/>
+    <n v="4253"/>
+    <n v="677122317.41999996"/>
+    <x v="65"/>
+    <x v="65"/>
+    <x v="64"/>
+    <n v="12.37"/>
+    <x v="65"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="66"/>
+    <x v="0"/>
+    <n v="1946"/>
+    <n v="611256865.44000006"/>
+    <x v="66"/>
+    <x v="66"/>
+    <x v="65"/>
+    <n v="10.47"/>
+    <x v="66"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="67"/>
+    <x v="0"/>
+    <n v="18712.849999999999"/>
+    <n v="90307818361.410004"/>
+    <x v="67"/>
+    <x v="67"/>
+    <x v="66"/>
+    <n v="4.78"/>
+    <x v="67"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <x v="0"/>
+    <n v="1615"/>
+    <n v="27284798961.52"/>
+    <x v="30"/>
+    <x v="30"/>
+    <x v="30"/>
+    <n v="-2.23"/>
+    <x v="30"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <x v="0"/>
+    <n v="941.1"/>
+    <n v="17118079111.799999"/>
+    <x v="31"/>
+    <x v="31"/>
+    <x v="31"/>
+    <n v="7.65"/>
+    <x v="31"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="0"/>
+    <n v="582"/>
+    <n v="10271568613.48"/>
+    <x v="17"/>
+    <x v="17"/>
+    <x v="17"/>
+    <n v="7.08"/>
+    <x v="17"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="68"/>
+    <x v="0"/>
+    <n v="2673"/>
+    <n v="7218194805.3000002"/>
+    <x v="68"/>
+    <x v="68"/>
+    <x v="67"/>
+    <n v="-1.94"/>
+    <x v="68"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="0"/>
+    <n v="1908.3"/>
+    <n v="6832285383.8699999"/>
+    <x v="32"/>
+    <x v="32"/>
+    <x v="32"/>
+    <n v="1.47"/>
+    <x v="32"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="33"/>
+    <x v="0"/>
+    <n v="918"/>
+    <n v="5722042598.3000002"/>
+    <x v="33"/>
+    <x v="33"/>
+    <x v="33"/>
+    <n v="6.01"/>
+    <x v="33"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="69"/>
+    <x v="0"/>
+    <n v="6793.5"/>
+    <n v="3768609406.8800001"/>
+    <x v="69"/>
+    <x v="69"/>
+    <x v="68"/>
+    <n v="14.19"/>
+    <x v="69"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="70"/>
+    <x v="0"/>
+    <n v="1051.4000000000001"/>
+    <n v="1618017738.48"/>
+    <x v="70"/>
+    <x v="70"/>
+    <x v="69"/>
+    <n v="26.67"/>
+    <x v="70"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="71"/>
+    <x v="0"/>
+    <n v="1426.05"/>
+    <n v="1503029678.8"/>
+    <x v="71"/>
+    <x v="71"/>
+    <x v="70"/>
+    <n v="9.06"/>
+    <x v="71"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="72"/>
+    <x v="0"/>
+    <n v="1369.6"/>
+    <n v="1366351310.8"/>
+    <x v="72"/>
+    <x v="72"/>
+    <x v="12"/>
+    <n v="0.33"/>
+    <x v="72"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="73"/>
+    <x v="0"/>
+    <n v="1106"/>
+    <n v="1332069979.8"/>
+    <x v="73"/>
+    <x v="73"/>
+    <x v="71"/>
+    <n v="9"/>
+    <x v="73"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="74"/>
+    <x v="0"/>
+    <n v="1176.45"/>
+    <n v="1168026796"/>
+    <x v="74"/>
+    <x v="74"/>
+    <x v="72"/>
+    <n v="5.34"/>
+    <x v="74"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="75"/>
+    <x v="0"/>
+    <n v="1076"/>
+    <n v="1108618369.5999999"/>
+    <x v="75"/>
+    <x v="75"/>
+    <x v="73"/>
+    <n v="2.36"/>
+    <x v="75"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="76"/>
+    <x v="0"/>
+    <n v="567"/>
+    <n v="865959309.15999997"/>
+    <x v="76"/>
+    <x v="76"/>
+    <x v="74"/>
+    <n v="9.6199999999999992"/>
+    <x v="76"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="77"/>
+    <x v="0"/>
+    <n v="166.65"/>
+    <n v="711243671.26999998"/>
+    <x v="77"/>
+    <x v="77"/>
+    <x v="75"/>
+    <n v="5.78"/>
+    <x v="77"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="78"/>
+    <x v="0"/>
+    <n v="130.9"/>
+    <n v="652315617.36000001"/>
+    <x v="78"/>
+    <x v="78"/>
+    <x v="76"/>
+    <n v="7.05"/>
+    <x v="78"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="79"/>
+    <x v="0"/>
+    <n v="887.95"/>
+    <n v="562848640.42999995"/>
+    <x v="79"/>
+    <x v="79"/>
+    <x v="77"/>
+    <n v="16.46"/>
+    <x v="79"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="80"/>
+    <x v="0"/>
+    <n v="1741.85"/>
+    <n v="523355189.83999997"/>
+    <x v="80"/>
+    <x v="80"/>
+    <x v="78"/>
+    <n v="-0.19"/>
+    <x v="80"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="81"/>
+    <x v="0"/>
+    <n v="155.75"/>
+    <n v="449193408.48000002"/>
+    <x v="81"/>
+    <x v="81"/>
+    <x v="79"/>
+    <n v="1.92"/>
+    <x v="81"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="82"/>
+    <x v="0"/>
+    <n v="440.3"/>
+    <n v="231209770.24000001"/>
+    <x v="82"/>
+    <x v="82"/>
+    <x v="80"/>
+    <n v="-0.88"/>
+    <x v="82"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="83"/>
+    <x v="0"/>
+    <n v="8075.65"/>
+    <n v="28511387786.950001"/>
+    <x v="83"/>
+    <x v="83"/>
+    <x v="81"/>
+    <n v="0.86"/>
+    <x v="83"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="84"/>
+    <x v="0"/>
+    <n v="559.75"/>
+    <n v="7267960199.6999998"/>
+    <x v="84"/>
+    <x v="84"/>
+    <x v="82"/>
+    <n v="22.12"/>
+    <x v="84"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="85"/>
+    <x v="0"/>
+    <n v="242.95"/>
+    <n v="4420660141.3999996"/>
+    <x v="85"/>
+    <x v="85"/>
+    <x v="83"/>
+    <n v="5.81"/>
+    <x v="85"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="86"/>
+    <x v="0"/>
+    <n v="334.8"/>
+    <n v="2829510328.3200002"/>
+    <x v="86"/>
+    <x v="86"/>
+    <x v="84"/>
+    <n v="3.78"/>
+    <x v="86"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="87"/>
+    <x v="0"/>
+    <n v="950"/>
+    <n v="2792427002.5599999"/>
+    <x v="87"/>
+    <x v="87"/>
+    <x v="85"/>
+    <n v="-5.85"/>
+    <x v="87"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="88"/>
+    <x v="0"/>
+    <n v="3392"/>
+    <n v="1863297324.0999999"/>
+    <x v="88"/>
+    <x v="88"/>
+    <x v="86"/>
+    <n v="4.7699999999999996"/>
+    <x v="88"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="89"/>
+    <x v="0"/>
+    <n v="4518.8999999999996"/>
+    <n v="1518638891.3599999"/>
+    <x v="89"/>
+    <x v="89"/>
+    <x v="87"/>
+    <n v="-8.3800000000000008"/>
+    <x v="89"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="90"/>
+    <x v="0"/>
+    <n v="4540"/>
+    <n v="1031698085.34"/>
+    <x v="90"/>
+    <x v="90"/>
+    <x v="88"/>
+    <n v="4.34"/>
+    <x v="90"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="91"/>
+    <x v="0"/>
+    <n v="937.9"/>
+    <n v="966074632.38"/>
+    <x v="91"/>
+    <x v="91"/>
+    <x v="89"/>
+    <n v="1.68"/>
+    <x v="91"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="92"/>
+    <x v="0"/>
+    <n v="607.20000000000005"/>
+    <n v="939184092"/>
+    <x v="92"/>
+    <x v="92"/>
+    <x v="90"/>
+    <n v="19.04"/>
+    <x v="92"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="93"/>
+    <x v="0"/>
+    <n v="3301.2"/>
+    <n v="837276898.96000004"/>
+    <x v="93"/>
+    <x v="93"/>
+    <x v="91"/>
+    <n v="-4.43"/>
+    <x v="93"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="94"/>
+    <x v="0"/>
+    <n v="1685.05"/>
+    <n v="808836502.34000003"/>
+    <x v="94"/>
+    <x v="94"/>
+    <x v="92"/>
+    <n v="4.82"/>
+    <x v="94"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="95"/>
+    <x v="0"/>
+    <n v="707.8"/>
+    <n v="581623012.82000005"/>
+    <x v="95"/>
+    <x v="95"/>
+    <x v="93"/>
+    <n v="13.31"/>
+    <x v="95"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="96"/>
+    <x v="0"/>
+    <n v="778.6"/>
+    <n v="478878610.41000003"/>
+    <x v="96"/>
+    <x v="96"/>
+    <x v="94"/>
+    <n v="11.75"/>
+    <x v="96"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="97"/>
+    <x v="0"/>
+    <n v="2040.15"/>
+    <n v="467913394.66000003"/>
+    <x v="97"/>
+    <x v="97"/>
+    <x v="95"/>
+    <n v="6.1"/>
+    <x v="97"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="98"/>
+    <x v="0"/>
+    <n v="504.95"/>
+    <n v="392175772.75"/>
+    <x v="98"/>
+    <x v="98"/>
+    <x v="96"/>
+    <n v="-2.1800000000000002"/>
+    <x v="98"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="99"/>
+    <x v="0"/>
+    <n v="604.25"/>
+    <n v="369096168.51999998"/>
+    <x v="99"/>
+    <x v="99"/>
+    <x v="97"/>
+    <n v="2.62"/>
+    <x v="99"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="100"/>
+    <x v="0"/>
+    <n v="21505"/>
+    <n v="346772698.48000002"/>
+    <x v="100"/>
+    <x v="100"/>
+    <x v="98"/>
+    <n v="-4.13"/>
+    <x v="100"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="101"/>
+    <x v="0"/>
+    <n v="279.89999999999998"/>
+    <n v="256395536.47999999"/>
+    <x v="101"/>
+    <x v="101"/>
+    <x v="99"/>
+    <n v="-8.1999999999999993"/>
+    <x v="101"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="102"/>
+    <x v="0"/>
+    <n v="683"/>
+    <n v="184182727.59"/>
+    <x v="102"/>
+    <x v="102"/>
+    <x v="100"/>
+    <n v="-18.03"/>
+    <x v="102"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="103"/>
+    <x v="0"/>
+    <n v="1260.8"/>
+    <n v="158785766.78"/>
+    <x v="103"/>
+    <x v="103"/>
+    <x v="101"/>
+    <n v="1.59"/>
+    <x v="103"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="104"/>
+    <x v="0"/>
+    <n v="25321.9"/>
+    <n v="23688217939.299999"/>
+    <x v="104"/>
+    <x v="104"/>
+    <x v="102"/>
+    <n v="2.2200000000000002"/>
+    <x v="104"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="105"/>
+    <x v="0"/>
+    <n v="3503"/>
+    <n v="12713551238.08"/>
+    <x v="105"/>
+    <x v="105"/>
+    <x v="103"/>
+    <n v="11.78"/>
+    <x v="105"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="106"/>
+    <x v="0"/>
+    <n v="276.2"/>
+    <n v="3719771141.04"/>
+    <x v="106"/>
+    <x v="106"/>
+    <x v="104"/>
+    <n v="-9.69"/>
+    <x v="106"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="107"/>
+    <x v="0"/>
+    <n v="2710"/>
+    <n v="2203862742.3299999"/>
+    <x v="107"/>
+    <x v="107"/>
+    <x v="105"/>
+    <n v="4.4800000000000004"/>
+    <x v="107"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="108"/>
+    <x v="0"/>
+    <n v="804"/>
+    <n v="1569012558.3599999"/>
+    <x v="108"/>
+    <x v="108"/>
+    <x v="106"/>
+    <n v="-5.97"/>
+    <x v="108"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="109"/>
+    <x v="0"/>
+    <n v="2126.5"/>
+    <n v="884444866.98000002"/>
+    <x v="109"/>
+    <x v="109"/>
+    <x v="107"/>
+    <n v="10.47"/>
+    <x v="109"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="110"/>
+    <x v="0"/>
+    <n v="1273.8"/>
+    <n v="711543869.85000002"/>
+    <x v="110"/>
+    <x v="110"/>
+    <x v="108"/>
+    <n v="3.4"/>
+    <x v="110"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="111"/>
+    <x v="0"/>
+    <n v="1435"/>
+    <n v="456846934.69999999"/>
+    <x v="111"/>
+    <x v="111"/>
+    <x v="109"/>
+    <n v="-6.19"/>
+    <x v="111"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="112"/>
+    <x v="0"/>
+    <n v="1535"/>
+    <n v="413516470.83999997"/>
+    <x v="112"/>
+    <x v="112"/>
+    <x v="110"/>
+    <n v="3.11"/>
+    <x v="112"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="113"/>
+    <x v="0"/>
+    <n v="556"/>
+    <n v="347191849.19999999"/>
+    <x v="113"/>
+    <x v="113"/>
+    <x v="111"/>
+    <n v="4.5"/>
+    <x v="113"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="114"/>
+    <x v="0"/>
+    <n v="1264"/>
+    <n v="264080062.86000001"/>
+    <x v="114"/>
+    <x v="114"/>
+    <x v="112"/>
+    <n v="16.37"/>
+    <x v="114"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="0"/>
+    <n v="1383.85"/>
+    <n v="138051413.18000001"/>
+    <x v="115"/>
+    <x v="115"/>
+    <x v="113"/>
+    <n v="5.18"/>
+    <x v="115"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="116"/>
+    <x v="0"/>
+    <n v="228.25"/>
+    <n v="123390216.40000001"/>
+    <x v="116"/>
+    <x v="116"/>
+    <x v="114"/>
+    <n v="-2.99"/>
+    <x v="116"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="117"/>
+    <x v="0"/>
+    <n v="724"/>
+    <n v="65448166.079999998"/>
+    <x v="117"/>
+    <x v="117"/>
+    <x v="115"/>
+    <n v="-1.08"/>
+    <x v="117"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="118"/>
+    <x v="0"/>
+    <n v="868.3"/>
+    <n v="55343306.340000004"/>
+    <x v="118"/>
+    <x v="118"/>
+    <x v="116"/>
+    <n v="4.97"/>
+    <x v="118"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="119"/>
+    <x v="0"/>
+    <n v="250.7"/>
+    <n v="22163103.059999999"/>
+    <x v="119"/>
+    <x v="119"/>
+    <x v="117"/>
+    <n v="-2.97"/>
+    <x v="119"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="120"/>
+    <x v="0"/>
+    <n v="461.55"/>
+    <n v="4557413988.7799997"/>
+    <x v="120"/>
+    <x v="120"/>
+    <x v="118"/>
+    <n v="9"/>
+    <x v="120"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="121"/>
+    <x v="0"/>
+    <n v="62.95"/>
+    <n v="1702797211.3499999"/>
+    <x v="121"/>
+    <x v="121"/>
+    <x v="119"/>
+    <n v="1.58"/>
+    <x v="121"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="122"/>
+    <x v="0"/>
+    <n v="464"/>
+    <n v="1438079767.0799999"/>
+    <x v="122"/>
+    <x v="122"/>
+    <x v="120"/>
+    <n v="15.22"/>
+    <x v="122"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="123"/>
+    <x v="0"/>
+    <n v="978.8"/>
+    <n v="421378555.19999999"/>
+    <x v="123"/>
+    <x v="123"/>
+    <x v="121"/>
+    <n v="8.99"/>
+    <x v="123"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="124"/>
+    <x v="0"/>
+    <n v="919"/>
+    <n v="353994672.32999998"/>
+    <x v="124"/>
+    <x v="124"/>
+    <x v="122"/>
+    <n v="5.99"/>
+    <x v="124"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="125"/>
+    <x v="0"/>
+    <n v="1335"/>
+    <n v="249817333.59"/>
+    <x v="125"/>
+    <x v="125"/>
+    <x v="123"/>
+    <n v="5.71"/>
+    <x v="125"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="126"/>
+    <x v="0"/>
+    <n v="494.3"/>
+    <n v="110466704.7"/>
+    <x v="126"/>
+    <x v="126"/>
+    <x v="124"/>
+    <n v="7.74"/>
+    <x v="126"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="127"/>
+    <x v="0"/>
+    <n v="516.5"/>
+    <n v="105878439.45999999"/>
+    <x v="127"/>
+    <x v="127"/>
+    <x v="125"/>
+    <n v="14.49"/>
+    <x v="127"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="128"/>
+    <x v="0"/>
+    <n v="1420"/>
+    <n v="94240255.200000003"/>
+    <x v="128"/>
+    <x v="128"/>
+    <x v="126"/>
+    <n v="4.72"/>
+    <x v="128"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="129"/>
+    <x v="0"/>
+    <n v="531"/>
+    <n v="52475694.079999998"/>
+    <x v="129"/>
+    <x v="129"/>
+    <x v="127"/>
+    <n v="9.11"/>
+    <x v="129"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="130"/>
+    <x v="0"/>
+    <n v="393.8"/>
+    <n v="28285355.789999999"/>
+    <x v="130"/>
+    <x v="130"/>
+    <x v="128"/>
+    <n v="7.06"/>
+    <x v="130"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="131"/>
+    <x v="0"/>
+    <n v="1692.95"/>
+    <n v="4602713221.8100004"/>
+    <x v="131"/>
+    <x v="131"/>
+    <x v="129"/>
+    <n v="-1.35"/>
+    <x v="131"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="132"/>
+    <x v="0"/>
+    <n v="180.6"/>
+    <n v="1217136581.4300001"/>
+    <x v="132"/>
+    <x v="132"/>
+    <x v="130"/>
+    <n v="-6.35"/>
+    <x v="132"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="133"/>
+    <x v="0"/>
+    <n v="34.299999999999997"/>
+    <n v="1213686656.0999999"/>
+    <x v="133"/>
+    <x v="133"/>
+    <x v="131"/>
+    <n v="14.21"/>
+    <x v="133"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="134"/>
+    <x v="0"/>
+    <n v="1365"/>
+    <n v="684473980.92999995"/>
+    <x v="134"/>
+    <x v="134"/>
+    <x v="12"/>
+    <s v="-"/>
+    <x v="134"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="135"/>
+    <x v="0"/>
+    <n v="206.05"/>
+    <n v="484229127.25"/>
+    <x v="135"/>
+    <x v="135"/>
+    <x v="132"/>
+    <n v="6.83"/>
+    <x v="135"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="136"/>
+    <x v="0"/>
+    <n v="60.7"/>
+    <n v="333303322.89999998"/>
+    <x v="136"/>
+    <x v="136"/>
+    <x v="133"/>
+    <n v="10.33"/>
+    <x v="136"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="137"/>
+    <x v="0"/>
+    <n v="624.95000000000005"/>
+    <n v="236599275.63999999"/>
+    <x v="137"/>
+    <x v="137"/>
+    <x v="134"/>
+    <n v="8.3800000000000008"/>
+    <x v="137"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="138"/>
+    <x v="0"/>
+    <n v="439.9"/>
+    <n v="182962022.40000001"/>
+    <x v="138"/>
+    <x v="138"/>
+    <x v="135"/>
+    <n v="6.76"/>
+    <x v="138"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="139"/>
+    <x v="0"/>
+    <n v="14.4"/>
+    <n v="119205269.09999999"/>
+    <x v="139"/>
+    <x v="139"/>
+    <x v="136"/>
+    <n v="-8.25"/>
+    <x v="139"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="140"/>
+    <x v="0"/>
+    <n v="13.85"/>
+    <n v="88684552.760000005"/>
+    <x v="140"/>
+    <x v="140"/>
+    <x v="137"/>
+    <n v="1.91"/>
+    <x v="140"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="141"/>
+    <x v="0"/>
+    <n v="120.6"/>
+    <n v="42432433.299999997"/>
+    <x v="141"/>
+    <x v="141"/>
+    <x v="138"/>
+    <n v="4.38"/>
+    <x v="141"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="142"/>
+    <x v="0"/>
+    <n v="5855.15"/>
+    <n v="75173843096.25"/>
+    <x v="142"/>
+    <x v="142"/>
+    <x v="139"/>
+    <n v="4.75"/>
+    <x v="142"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="143"/>
+    <x v="0"/>
+    <n v="2475"/>
+    <n v="59937654691.860001"/>
+    <x v="143"/>
+    <x v="143"/>
+    <x v="140"/>
+    <n v="46.07"/>
+    <x v="143"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="144"/>
+    <x v="0"/>
+    <n v="291.60000000000002"/>
+    <n v="3530489629.4499998"/>
+    <x v="144"/>
+    <x v="144"/>
+    <x v="141"/>
+    <n v="4.1900000000000004"/>
+    <x v="144"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="145"/>
+    <x v="0"/>
+    <n v="406.95"/>
+    <n v="3199538208.75"/>
+    <x v="145"/>
+    <x v="145"/>
+    <x v="142"/>
+    <n v="-2.85"/>
+    <x v="145"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="146"/>
+    <x v="0"/>
+    <n v="105"/>
+    <n v="2996244845.0999999"/>
+    <x v="146"/>
+    <x v="146"/>
+    <x v="143"/>
+    <n v="-0.52"/>
+    <x v="146"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="147"/>
+    <x v="0"/>
+    <n v="510.3"/>
+    <n v="1023257548.46"/>
+    <x v="147"/>
+    <x v="147"/>
+    <x v="144"/>
+    <n v="-9.11"/>
+    <x v="147"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="148"/>
+    <x v="0"/>
+    <n v="105.1"/>
+    <n v="887526268.49000001"/>
+    <x v="148"/>
+    <x v="148"/>
+    <x v="145"/>
+    <n v="-3.73"/>
+    <x v="148"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="149"/>
+    <x v="0"/>
+    <n v="696.5"/>
+    <n v="830705915.62"/>
+    <x v="149"/>
+    <x v="149"/>
+    <x v="146"/>
+    <n v="-0.92"/>
+    <x v="149"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="150"/>
+    <x v="0"/>
+    <n v="1153"/>
+    <n v="826900016.39999998"/>
+    <x v="150"/>
+    <x v="150"/>
+    <x v="147"/>
+    <n v="-6.24"/>
+    <x v="150"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="151"/>
+    <x v="0"/>
+    <n v="82.35"/>
+    <n v="652491379.79999995"/>
+    <x v="151"/>
+    <x v="151"/>
+    <x v="148"/>
+    <n v="1.23"/>
+    <x v="151"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="152"/>
+    <x v="0"/>
+    <n v="80.75"/>
+    <n v="312545774.93000001"/>
+    <x v="152"/>
+    <x v="152"/>
+    <x v="149"/>
+    <n v="-0.79"/>
+    <x v="152"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="153"/>
+    <x v="0"/>
+    <n v="293"/>
+    <n v="256948962.69"/>
+    <x v="153"/>
+    <x v="153"/>
+    <x v="150"/>
+    <n v="10.33"/>
+    <x v="153"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="154"/>
+    <x v="0"/>
+    <n v="2290"/>
+    <n v="214282446.30000001"/>
+    <x v="154"/>
+    <x v="154"/>
+    <x v="151"/>
+    <n v="8.89"/>
+    <x v="154"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="155"/>
+    <x v="0"/>
+    <n v="102"/>
+    <n v="208513291.77000001"/>
+    <x v="155"/>
+    <x v="155"/>
+    <x v="152"/>
+    <n v="4.47"/>
+    <x v="155"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="156"/>
+    <x v="0"/>
+    <n v="240.5"/>
+    <n v="149068056.34"/>
+    <x v="156"/>
+    <x v="156"/>
+    <x v="153"/>
+    <n v="11.15"/>
+    <x v="156"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="157"/>
+    <x v="0"/>
+    <n v="306.75"/>
+    <n v="147676060.28999999"/>
+    <x v="157"/>
+    <x v="157"/>
+    <x v="154"/>
+    <n v="-5.25"/>
+    <x v="157"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="158"/>
+    <x v="0"/>
+    <n v="7551.65"/>
+    <n v="20801622692.419998"/>
+    <x v="158"/>
+    <x v="158"/>
+    <x v="155"/>
+    <n v="2.81"/>
+    <x v="158"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="159"/>
+    <x v="0"/>
+    <n v="2441"/>
+    <n v="9163971117.0799999"/>
+    <x v="159"/>
+    <x v="159"/>
+    <x v="156"/>
+    <n v="4.49"/>
+    <x v="159"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="160"/>
+    <x v="0"/>
+    <n v="796.5"/>
+    <n v="4977754724.8800001"/>
+    <x v="160"/>
+    <x v="160"/>
+    <x v="157"/>
+    <n v="-17.350000000000001"/>
+    <x v="160"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="161"/>
+    <x v="0"/>
+    <n v="89.7"/>
+    <n v="1778443708.8"/>
+    <x v="161"/>
+    <x v="161"/>
+    <x v="158"/>
+    <n v="13.74"/>
+    <x v="161"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="162"/>
+    <x v="0"/>
+    <n v="166.1"/>
+    <n v="1013008483"/>
+    <x v="162"/>
+    <x v="162"/>
+    <x v="159"/>
+    <n v="3.38"/>
+    <x v="162"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="163"/>
+    <x v="0"/>
+    <n v="364"/>
+    <n v="685863036"/>
+    <x v="163"/>
+    <x v="163"/>
+    <x v="160"/>
+    <n v="5.89"/>
+    <x v="163"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="164"/>
+    <x v="0"/>
+    <n v="107.65"/>
+    <n v="685435187.58000004"/>
+    <x v="164"/>
+    <x v="141"/>
+    <x v="161"/>
+    <n v="-0.78"/>
+    <x v="164"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="165"/>
+    <x v="0"/>
+    <n v="479.5"/>
+    <n v="552404342.88"/>
+    <x v="165"/>
+    <x v="164"/>
+    <x v="162"/>
+    <n v="-1.81"/>
+    <x v="165"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="166"/>
+    <x v="0"/>
+    <n v="487.6"/>
+    <n v="440816088.61000001"/>
+    <x v="166"/>
+    <x v="165"/>
+    <x v="163"/>
+    <n v="4.17"/>
+    <x v="166"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="167"/>
+    <x v="0"/>
+    <n v="258.2"/>
+    <n v="382544694"/>
+    <x v="167"/>
+    <x v="166"/>
+    <x v="164"/>
+    <n v="8.93"/>
+    <x v="167"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="168"/>
+    <x v="0"/>
+    <n v="269.60000000000002"/>
+    <n v="299523443.05000001"/>
+    <x v="168"/>
+    <x v="167"/>
+    <x v="165"/>
+    <n v="4.99"/>
+    <x v="168"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="169"/>
+    <x v="0"/>
+    <n v="225.15"/>
+    <n v="269829055.62"/>
+    <x v="169"/>
+    <x v="168"/>
+    <x v="166"/>
+    <n v="-3.77"/>
+    <x v="169"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="170"/>
+    <x v="0"/>
+    <n v="1030"/>
+    <n v="230784850.80000001"/>
+    <x v="170"/>
+    <x v="169"/>
+    <x v="167"/>
+    <n v="2.6"/>
+    <x v="170"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="171"/>
+    <x v="0"/>
+    <n v="372.95"/>
+    <n v="196611311.78"/>
+    <x v="171"/>
+    <x v="170"/>
+    <x v="168"/>
+    <n v="-4.63"/>
+    <x v="171"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="172"/>
+    <x v="0"/>
+    <n v="288"/>
+    <n v="82117660"/>
+    <x v="172"/>
+    <x v="171"/>
+    <x v="169"/>
+    <n v="10.07"/>
+    <x v="172"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="173"/>
+    <x v="0"/>
+    <n v="113.35"/>
+    <n v="42514988.340000004"/>
+    <x v="173"/>
+    <x v="172"/>
+    <x v="170"/>
+    <n v="-2.67"/>
+    <x v="173"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="174"/>
+    <x v="0"/>
+    <n v="12440.45"/>
+    <n v="20097604054.279999"/>
+    <x v="174"/>
+    <x v="173"/>
+    <x v="171"/>
+    <n v="-1.85"/>
+    <x v="174"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="85"/>
+    <x v="0"/>
+    <n v="242.95"/>
+    <n v="4420660141.3999996"/>
+    <x v="85"/>
+    <x v="85"/>
+    <x v="83"/>
+    <n v="5.81"/>
+    <x v="85"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="86"/>
+    <x v="0"/>
+    <n v="334.8"/>
+    <n v="2829510328.3200002"/>
+    <x v="86"/>
+    <x v="86"/>
+    <x v="84"/>
+    <n v="3.78"/>
+    <x v="86"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="87"/>
+    <x v="0"/>
+    <n v="950"/>
+    <n v="2792427002.5599999"/>
+    <x v="87"/>
+    <x v="87"/>
+    <x v="85"/>
+    <n v="-5.85"/>
+    <x v="87"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="88"/>
+    <x v="0"/>
+    <n v="3392"/>
+    <n v="1863297324.0999999"/>
+    <x v="88"/>
+    <x v="88"/>
+    <x v="86"/>
+    <n v="4.7699999999999996"/>
+    <x v="88"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="89"/>
+    <x v="0"/>
+    <n v="4518.8999999999996"/>
+    <n v="1518638891.3599999"/>
+    <x v="89"/>
+    <x v="89"/>
+    <x v="87"/>
+    <n v="-8.3800000000000008"/>
+    <x v="89"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="91"/>
+    <x v="0"/>
+    <n v="937.9"/>
+    <n v="966074632.38"/>
+    <x v="91"/>
+    <x v="91"/>
+    <x v="89"/>
+    <n v="1.68"/>
+    <x v="91"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="92"/>
+    <x v="0"/>
+    <n v="607.20000000000005"/>
+    <n v="939184092"/>
+    <x v="92"/>
+    <x v="92"/>
+    <x v="90"/>
+    <n v="19.04"/>
+    <x v="92"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="175"/>
+    <x v="0"/>
+    <n v="941.5"/>
+    <n v="879582821.69000006"/>
+    <x v="175"/>
+    <x v="174"/>
+    <x v="172"/>
+    <n v="-28.2"/>
+    <x v="175"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="93"/>
+    <x v="0"/>
+    <n v="3301.2"/>
+    <n v="837276898.96000004"/>
+    <x v="93"/>
+    <x v="93"/>
+    <x v="91"/>
+    <n v="-4.43"/>
+    <x v="93"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="94"/>
+    <x v="0"/>
+    <n v="1685.05"/>
+    <n v="808836502.34000003"/>
+    <x v="94"/>
+    <x v="94"/>
+    <x v="92"/>
+    <n v="4.82"/>
+    <x v="94"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="96"/>
+    <x v="0"/>
+    <n v="778.6"/>
+    <n v="478878610.41000003"/>
+    <x v="96"/>
+    <x v="96"/>
+    <x v="94"/>
+    <n v="11.75"/>
+    <x v="96"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="98"/>
+    <x v="0"/>
+    <n v="504.95"/>
+    <n v="392175772.75"/>
+    <x v="98"/>
+    <x v="98"/>
+    <x v="96"/>
+    <n v="-2.1800000000000002"/>
+    <x v="98"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="99"/>
+    <x v="0"/>
+    <n v="604.25"/>
+    <n v="369096168.51999998"/>
+    <x v="99"/>
+    <x v="99"/>
+    <x v="97"/>
+    <n v="2.62"/>
+    <x v="99"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="100"/>
+    <x v="0"/>
+    <n v="21505"/>
+    <n v="346772698.48000002"/>
+    <x v="100"/>
+    <x v="100"/>
+    <x v="98"/>
+    <n v="-4.13"/>
+    <x v="100"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="101"/>
+    <x v="0"/>
+    <n v="279.89999999999998"/>
+    <n v="256395536.47999999"/>
+    <x v="101"/>
+    <x v="101"/>
+    <x v="99"/>
+    <n v="-8.1999999999999993"/>
+    <x v="101"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="102"/>
+    <x v="0"/>
+    <n v="683"/>
+    <n v="184182727.59"/>
+    <x v="102"/>
+    <x v="102"/>
+    <x v="100"/>
+    <n v="-18.03"/>
+    <x v="102"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="176"/>
+    <x v="0"/>
+    <n v="6402"/>
+    <n v="126750485.59999999"/>
+    <x v="176"/>
+    <x v="175"/>
+    <x v="173"/>
+    <n v="6.68"/>
+    <x v="176"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="177"/>
+    <x v="0"/>
+    <n v="620.6"/>
+    <n v="39728276.719999999"/>
+    <x v="177"/>
+    <x v="176"/>
+    <x v="174"/>
+    <n v="8.94"/>
+    <x v="177"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="178"/>
+    <x v="0"/>
+    <n v="1310"/>
+    <n v="30019762.920000002"/>
+    <x v="178"/>
+    <x v="177"/>
+    <x v="175"/>
+    <n v="5.72"/>
+    <x v="178"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="179"/>
+    <x v="0"/>
+    <n v="3817"/>
+    <n v="18115379.699999999"/>
+    <x v="179"/>
+    <x v="178"/>
+    <x v="116"/>
+    <n v="1.06"/>
+    <x v="179"/>
+    <x v="12"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="D3:F20" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="181">
+        <item x="100"/>
+        <item x="143"/>
+        <item x="171"/>
+        <item x="93"/>
+        <item x="109"/>
+        <item x="150"/>
+        <item x="90"/>
+        <item x="3"/>
+        <item x="160"/>
+        <item x="99"/>
+        <item x="33"/>
+        <item x="4"/>
+        <item x="71"/>
+        <item x="69"/>
+        <item x="13"/>
+        <item x="34"/>
+        <item x="18"/>
+        <item x="22"/>
+        <item x="112"/>
+        <item x="11"/>
+        <item x="85"/>
+        <item x="111"/>
+        <item x="15"/>
+        <item x="163"/>
+        <item x="129"/>
+        <item x="44"/>
+        <item x="20"/>
+        <item x="173"/>
+        <item x="27"/>
+        <item x="70"/>
+        <item x="91"/>
+        <item x="65"/>
+        <item x="52"/>
+        <item x="106"/>
+        <item x="39"/>
+        <item x="45"/>
+        <item x="139"/>
+        <item x="88"/>
+        <item x="105"/>
+        <item x="122"/>
+        <item x="89"/>
+        <item x="7"/>
+        <item x="55"/>
+        <item x="36"/>
+        <item x="164"/>
+        <item x="175"/>
+        <item x="178"/>
+        <item x="92"/>
+        <item x="51"/>
+        <item x="125"/>
+        <item x="101"/>
+        <item x="172"/>
+        <item x="166"/>
+        <item x="140"/>
+        <item x="110"/>
+        <item x="63"/>
+        <item x="68"/>
+        <item x="80"/>
+        <item x="30"/>
+        <item x="76"/>
+        <item x="10"/>
+        <item x="145"/>
+        <item x="155"/>
+        <item x="167"/>
+        <item x="43"/>
+        <item x="157"/>
+        <item x="121"/>
+        <item x="31"/>
+        <item x="75"/>
+        <item x="82"/>
+        <item x="37"/>
+        <item x="81"/>
+        <item x="165"/>
+        <item x="24"/>
+        <item x="35"/>
+        <item x="57"/>
+        <item x="26"/>
+        <item x="161"/>
+        <item x="102"/>
+        <item x="41"/>
+        <item x="147"/>
+        <item x="153"/>
+        <item x="149"/>
+        <item x="114"/>
+        <item x="32"/>
+        <item x="97"/>
+        <item x="86"/>
+        <item x="123"/>
+        <item x="59"/>
+        <item x="64"/>
+        <item x="96"/>
+        <item x="5"/>
+        <item x="25"/>
+        <item x="130"/>
+        <item x="50"/>
+        <item x="1"/>
+        <item x="84"/>
+        <item x="47"/>
+        <item x="103"/>
+        <item x="170"/>
+        <item x="12"/>
+        <item x="66"/>
+        <item x="8"/>
+        <item x="73"/>
+        <item x="177"/>
+        <item x="152"/>
+        <item x="141"/>
+        <item x="137"/>
+        <item x="135"/>
+        <item x="46"/>
+        <item x="136"/>
+        <item x="0"/>
+        <item x="104"/>
+        <item x="67"/>
+        <item x="40"/>
+        <item x="83"/>
+        <item x="56"/>
+        <item x="131"/>
+        <item x="142"/>
+        <item x="158"/>
+        <item x="174"/>
+        <item x="29"/>
+        <item x="16"/>
+        <item x="120"/>
+        <item x="148"/>
+        <item x="124"/>
+        <item x="168"/>
+        <item x="162"/>
+        <item x="116"/>
+        <item x="60"/>
+        <item x="169"/>
+        <item x="77"/>
+        <item x="179"/>
+        <item x="53"/>
+        <item x="128"/>
+        <item x="19"/>
+        <item x="126"/>
+        <item x="28"/>
+        <item x="134"/>
+        <item x="54"/>
+        <item x="113"/>
+        <item x="154"/>
+        <item x="38"/>
+        <item x="78"/>
+        <item x="118"/>
+        <item x="159"/>
+        <item x="151"/>
+        <item x="176"/>
+        <item x="79"/>
+        <item x="74"/>
+        <item x="17"/>
+        <item x="72"/>
+        <item x="127"/>
+        <item x="9"/>
+        <item x="87"/>
+        <item x="138"/>
+        <item x="95"/>
+        <item x="48"/>
+        <item x="2"/>
+        <item x="146"/>
+        <item x="58"/>
+        <item x="61"/>
+        <item x="14"/>
+        <item x="107"/>
+        <item x="94"/>
+        <item x="117"/>
+        <item x="133"/>
+        <item x="6"/>
+        <item x="49"/>
+        <item x="21"/>
+        <item x="23"/>
+        <item x="42"/>
+        <item x="144"/>
+        <item x="119"/>
+        <item x="108"/>
+        <item x="156"/>
+        <item x="115"/>
+        <item x="62"/>
+        <item x="132"/>
+        <item x="98"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField numFmtId="4" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="181">
+        <item x="140"/>
+        <item x="139"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="21"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="133"/>
+        <item x="19"/>
+        <item x="37"/>
+        <item x="136"/>
+        <item x="161"/>
+        <item x="12"/>
+        <item x="151"/>
+        <item x="121"/>
+        <item x="23"/>
+        <item x="152"/>
+        <item x="22"/>
+        <item x="164"/>
+        <item x="146"/>
+        <item x="155"/>
+        <item x="173"/>
+        <item x="148"/>
+        <item x="78"/>
+        <item x="36"/>
+        <item x="141"/>
+        <item x="162"/>
+        <item x="3"/>
+        <item x="77"/>
+        <item x="38"/>
+        <item x="18"/>
+        <item x="81"/>
+        <item x="39"/>
+        <item x="169"/>
+        <item x="167"/>
+        <item x="119"/>
+        <item x="132"/>
+        <item x="156"/>
+        <item x="172"/>
+        <item x="116"/>
+        <item x="168"/>
+        <item x="153"/>
+        <item x="24"/>
+        <item x="34"/>
+        <item x="144"/>
+        <item x="20"/>
+        <item x="85"/>
+        <item x="163"/>
+        <item x="101"/>
+        <item x="157"/>
+        <item x="171"/>
+        <item x="106"/>
+        <item x="41"/>
+        <item x="122"/>
+        <item x="120"/>
+        <item x="62"/>
+        <item x="145"/>
+        <item x="165"/>
+        <item x="126"/>
+        <item x="55"/>
+        <item x="98"/>
+        <item x="2"/>
+        <item x="130"/>
+        <item x="50"/>
+        <item x="84"/>
+        <item x="138"/>
+        <item x="135"/>
+        <item x="166"/>
+        <item x="129"/>
+        <item x="86"/>
+        <item x="82"/>
+        <item x="9"/>
+        <item x="45"/>
+        <item x="76"/>
+        <item x="147"/>
+        <item x="17"/>
+        <item x="92"/>
+        <item x="99"/>
+        <item x="95"/>
+        <item x="127"/>
+        <item x="149"/>
+        <item x="177"/>
+        <item x="137"/>
+        <item x="96"/>
+        <item x="48"/>
+        <item x="11"/>
+        <item x="47"/>
+        <item x="31"/>
+        <item x="33"/>
+        <item x="79"/>
+        <item x="113"/>
+        <item x="51"/>
+        <item x="102"/>
+        <item x="117"/>
+        <item x="108"/>
+        <item x="70"/>
+        <item x="87"/>
+        <item x="124"/>
+        <item x="170"/>
+        <item x="118"/>
+        <item x="63"/>
+        <item x="91"/>
+        <item x="123"/>
+        <item x="61"/>
+        <item x="73"/>
+        <item x="54"/>
+        <item x="35"/>
+        <item x="6"/>
+        <item x="114"/>
+        <item x="150"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="5"/>
+        <item x="110"/>
+        <item x="72"/>
+        <item x="125"/>
+        <item x="178"/>
+        <item x="111"/>
+        <item x="128"/>
+        <item x="42"/>
+        <item x="57"/>
+        <item x="52"/>
+        <item x="30"/>
+        <item x="94"/>
+        <item x="49"/>
+        <item x="103"/>
+        <item x="71"/>
+        <item x="115"/>
+        <item x="32"/>
+        <item x="112"/>
+        <item x="134"/>
+        <item x="131"/>
+        <item x="80"/>
+        <item x="13"/>
+        <item x="154"/>
+        <item x="66"/>
+        <item x="43"/>
+        <item x="97"/>
+        <item x="109"/>
+        <item x="107"/>
+        <item x="159"/>
+        <item x="68"/>
+        <item x="10"/>
+        <item x="14"/>
+        <item x="175"/>
+        <item x="58"/>
+        <item x="93"/>
+        <item x="7"/>
+        <item x="160"/>
+        <item x="143"/>
+        <item x="64"/>
+        <item x="88"/>
+        <item x="65"/>
+        <item x="16"/>
+        <item x="4"/>
+        <item x="179"/>
+        <item x="105"/>
+        <item x="44"/>
+        <item x="90"/>
+        <item x="89"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="142"/>
+        <item x="176"/>
+        <item x="69"/>
+        <item x="158"/>
+        <item x="83"/>
+        <item x="1"/>
+        <item x="174"/>
+        <item x="0"/>
+        <item x="53"/>
+        <item x="15"/>
+        <item x="46"/>
+        <item x="29"/>
+        <item x="100"/>
+        <item x="104"/>
+        <item x="56"/>
+        <item x="40"/>
+        <item x="8"/>
+        <item x="67"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="180">
+        <item x="139"/>
+        <item x="21"/>
+        <item x="140"/>
+        <item x="28"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="133"/>
+        <item x="19"/>
+        <item x="37"/>
+        <item x="23"/>
+        <item x="22"/>
+        <item x="136"/>
+        <item x="121"/>
+        <item x="12"/>
+        <item x="151"/>
+        <item x="161"/>
+        <item x="152"/>
+        <item x="38"/>
+        <item x="155"/>
+        <item x="78"/>
+        <item x="36"/>
+        <item x="146"/>
+        <item x="141"/>
+        <item x="18"/>
+        <item x="148"/>
+        <item x="153"/>
+        <item x="77"/>
+        <item x="172"/>
+        <item x="162"/>
+        <item x="39"/>
+        <item x="81"/>
+        <item x="3"/>
+        <item x="24"/>
+        <item x="135"/>
+        <item x="167"/>
+        <item x="20"/>
+        <item x="132"/>
+        <item x="156"/>
+        <item x="34"/>
+        <item x="85"/>
+        <item x="168"/>
+        <item x="170"/>
+        <item x="166"/>
+        <item x="119"/>
+        <item x="144"/>
+        <item x="171"/>
+        <item x="116"/>
+        <item x="101"/>
+        <item x="157"/>
+        <item x="106"/>
+        <item x="41"/>
+        <item x="86"/>
+        <item x="163"/>
+        <item x="122"/>
+        <item x="147"/>
+        <item x="145"/>
+        <item x="130"/>
+        <item x="98"/>
+        <item x="164"/>
+        <item x="55"/>
+        <item x="84"/>
+        <item x="92"/>
+        <item x="62"/>
+        <item x="120"/>
+        <item x="2"/>
+        <item x="126"/>
+        <item x="82"/>
+        <item x="138"/>
+        <item x="99"/>
+        <item x="9"/>
+        <item x="165"/>
+        <item x="127"/>
+        <item x="129"/>
+        <item x="17"/>
+        <item x="76"/>
+        <item x="50"/>
+        <item x="137"/>
+        <item x="45"/>
+        <item x="176"/>
+        <item x="95"/>
+        <item x="113"/>
+        <item x="149"/>
+        <item x="96"/>
+        <item x="70"/>
+        <item x="11"/>
+        <item x="33"/>
+        <item x="160"/>
+        <item x="117"/>
+        <item x="79"/>
+        <item x="169"/>
+        <item x="102"/>
+        <item x="31"/>
+        <item x="6"/>
+        <item x="48"/>
+        <item x="42"/>
+        <item x="51"/>
+        <item x="123"/>
+        <item x="47"/>
+        <item x="124"/>
+        <item x="108"/>
+        <item x="118"/>
+        <item x="54"/>
+        <item x="35"/>
+        <item x="87"/>
+        <item x="150"/>
+        <item x="91"/>
+        <item x="111"/>
+        <item x="174"/>
+        <item x="63"/>
+        <item x="114"/>
+        <item x="5"/>
+        <item x="73"/>
+        <item x="61"/>
+        <item x="128"/>
+        <item x="125"/>
+        <item x="143"/>
+        <item x="110"/>
+        <item x="75"/>
+        <item x="74"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="103"/>
+        <item x="57"/>
+        <item x="115"/>
+        <item x="177"/>
+        <item x="30"/>
+        <item x="94"/>
+        <item x="134"/>
+        <item x="49"/>
+        <item x="112"/>
+        <item x="52"/>
+        <item x="154"/>
+        <item x="14"/>
+        <item x="80"/>
+        <item x="32"/>
+        <item x="131"/>
+        <item x="66"/>
+        <item x="97"/>
+        <item x="109"/>
+        <item x="13"/>
+        <item x="107"/>
+        <item x="68"/>
+        <item x="43"/>
+        <item x="159"/>
+        <item x="10"/>
+        <item x="16"/>
+        <item x="105"/>
+        <item x="7"/>
+        <item x="88"/>
+        <item x="93"/>
+        <item x="64"/>
+        <item x="58"/>
+        <item x="60"/>
+        <item x="65"/>
+        <item x="44"/>
+        <item x="90"/>
+        <item x="178"/>
+        <item x="4"/>
+        <item x="89"/>
+        <item x="59"/>
+        <item x="142"/>
+        <item x="158"/>
+        <item x="175"/>
+        <item x="69"/>
+        <item x="83"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="173"/>
+        <item x="53"/>
+        <item x="15"/>
+        <item x="104"/>
+        <item x="29"/>
+        <item x="46"/>
+        <item x="100"/>
+        <item x="56"/>
+        <item x="40"/>
+        <item x="8"/>
+        <item x="67"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0">
+      <items count="181">
+        <item x="179"/>
+        <item x="119"/>
+        <item x="130"/>
+        <item x="178"/>
+        <item x="177"/>
+        <item x="55"/>
+        <item x="141"/>
+        <item x="173"/>
+        <item x="28"/>
+        <item x="129"/>
+        <item x="118"/>
+        <item x="54"/>
+        <item x="117"/>
+        <item x="172"/>
+        <item x="53"/>
+        <item x="140"/>
+        <item x="128"/>
+        <item x="27"/>
+        <item x="127"/>
+        <item x="126"/>
+        <item x="139"/>
+        <item x="116"/>
+        <item x="176"/>
+        <item x="26"/>
+        <item x="115"/>
+        <item x="157"/>
+        <item x="156"/>
+        <item x="39"/>
+        <item x="103"/>
+        <item x="138"/>
+        <item x="102"/>
+        <item x="171"/>
+        <item x="155"/>
+        <item x="154"/>
+        <item x="15"/>
+        <item x="170"/>
+        <item x="82"/>
+        <item x="137"/>
+        <item x="125"/>
+        <item x="101"/>
+        <item x="153"/>
+        <item x="114"/>
+        <item x="169"/>
+        <item x="25"/>
+        <item x="168"/>
+        <item x="152"/>
+        <item x="24"/>
+        <item x="14"/>
+        <item x="136"/>
+        <item x="23"/>
+        <item x="100"/>
+        <item x="113"/>
+        <item x="22"/>
+        <item x="124"/>
+        <item x="99"/>
+        <item x="167"/>
+        <item x="98"/>
+        <item x="112"/>
+        <item x="123"/>
+        <item x="166"/>
+        <item x="81"/>
+        <item x="111"/>
+        <item x="97"/>
+        <item x="96"/>
+        <item x="52"/>
+        <item x="135"/>
+        <item x="51"/>
+        <item x="21"/>
+        <item x="80"/>
+        <item x="38"/>
+        <item x="13"/>
+        <item x="165"/>
+        <item x="79"/>
+        <item x="50"/>
+        <item x="95"/>
+        <item x="66"/>
+        <item x="49"/>
+        <item x="78"/>
+        <item x="151"/>
+        <item x="48"/>
+        <item x="12"/>
+        <item x="65"/>
+        <item x="134"/>
+        <item x="164"/>
+        <item x="163"/>
+        <item x="77"/>
+        <item x="110"/>
+        <item x="11"/>
+        <item x="47"/>
+        <item x="94"/>
+        <item x="150"/>
+        <item x="149"/>
+        <item x="93"/>
+        <item x="76"/>
+        <item x="37"/>
+        <item x="175"/>
+        <item x="109"/>
+        <item x="148"/>
+        <item x="92"/>
+        <item x="46"/>
+        <item x="91"/>
+        <item x="20"/>
+        <item x="162"/>
+        <item x="147"/>
+        <item x="90"/>
+        <item x="10"/>
+        <item x="75"/>
+        <item x="74"/>
+        <item x="45"/>
+        <item x="133"/>
+        <item x="132"/>
+        <item x="9"/>
+        <item x="19"/>
+        <item x="8"/>
+        <item x="64"/>
+        <item x="73"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="72"/>
+        <item x="44"/>
+        <item x="122"/>
+        <item x="63"/>
+        <item x="71"/>
+        <item x="89"/>
+        <item x="36"/>
+        <item x="108"/>
+        <item x="70"/>
+        <item x="62"/>
+        <item x="43"/>
+        <item x="121"/>
+        <item x="5"/>
+        <item x="161"/>
+        <item x="4"/>
+        <item x="42"/>
+        <item x="88"/>
+        <item x="61"/>
+        <item x="60"/>
+        <item x="107"/>
+        <item x="18"/>
+        <item x="59"/>
+        <item x="87"/>
+        <item x="86"/>
+        <item x="146"/>
+        <item x="145"/>
+        <item x="58"/>
+        <item x="3"/>
+        <item x="35"/>
+        <item x="144"/>
+        <item x="106"/>
+        <item x="69"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="85"/>
+        <item x="120"/>
+        <item x="131"/>
+        <item x="34"/>
+        <item x="41"/>
+        <item x="160"/>
+        <item x="33"/>
+        <item x="57"/>
+        <item x="32"/>
+        <item x="68"/>
+        <item x="84"/>
+        <item x="159"/>
+        <item x="17"/>
+        <item x="105"/>
+        <item x="40"/>
+        <item x="16"/>
+        <item x="31"/>
+        <item x="174"/>
+        <item x="158"/>
+        <item x="56"/>
+        <item x="104"/>
+        <item x="0"/>
+        <item x="30"/>
+        <item x="83"/>
+        <item x="143"/>
+        <item x="29"/>
+        <item x="142"/>
+        <item x="67"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="14">
+        <item x="0"/>
+        <item h="1" sd="0" x="7"/>
+        <item h="1" sd="0" x="5"/>
+        <item h="1" sd="0" x="3"/>
+        <item h="1" sd="0" x="6"/>
+        <item h="1" sd="0" x="4"/>
+        <item h="1" sd="0" x="9"/>
+        <item h="1" sd="0" x="10"/>
+        <item h="1" sd="0" x="11"/>
+        <item h="1" sd="0" x="12"/>
+        <item h="1" sd="0" x="2"/>
+        <item h="1" sd="0" x="1"/>
+        <item h="1" sd="0" x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="17">
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="60"/>
+    </i>
+    <i>
+      <x v="91"/>
+    </i>
+    <i>
+      <x v="95"/>
+    </i>
+    <i>
+      <x v="100"/>
+    </i>
+    <i>
+      <x v="102"/>
+    </i>
+    <i>
+      <x v="111"/>
+    </i>
+    <i>
+      <x v="153"/>
+    </i>
+    <i>
+      <x v="158"/>
+    </i>
+    <i>
+      <x v="162"/>
+    </i>
+    <i>
+      <x v="167"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Sum of LTP _x000a_" fld="2" baseField="0" baseItem="0"/>
+    <dataField name="Sum of VALUE  in cr" fld="8" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_Industry" sourceName="Industry">
+  <pivotTables>
+    <pivotTable tabId="19" name="PivotTable1"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="1">
+      <items count="13">
+        <i x="0" s="1"/>
+        <i x="7"/>
+        <i x="5"/>
+        <i x="3"/>
+        <i x="6"/>
+        <i x="4"/>
+        <i x="9"/>
+        <i x="10"/>
+        <i x="11"/>
+        <i x="12"/>
+        <i x="2"/>
+        <i x="1"/>
+        <i x="8"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <slicer name="Industry" cache="Slicer_Industry" caption="Industry" rowHeight="241300"/>
+</slicers>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3602,10 +7961,273 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D3:F20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="23.140625" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="10" width="6" customWidth="1"/>
+    <col min="11" max="11" width="7" customWidth="1"/>
+    <col min="12" max="12" width="6" customWidth="1"/>
+    <col min="13" max="13" width="7" customWidth="1"/>
+    <col min="14" max="14" width="6" customWidth="1"/>
+    <col min="15" max="15" width="5" customWidth="1"/>
+    <col min="16" max="16" width="18.28515625" customWidth="1"/>
+    <col min="17" max="24" width="12" customWidth="1"/>
+    <col min="25" max="25" width="11" customWidth="1"/>
+    <col min="26" max="26" width="12" customWidth="1"/>
+    <col min="27" max="27" width="16.42578125" customWidth="1"/>
+    <col min="28" max="28" width="6" customWidth="1"/>
+    <col min="29" max="29" width="4" customWidth="1"/>
+    <col min="30" max="30" width="7" customWidth="1"/>
+    <col min="31" max="31" width="4" customWidth="1"/>
+    <col min="32" max="32" width="6" customWidth="1"/>
+    <col min="33" max="33" width="7" customWidth="1"/>
+    <col min="34" max="34" width="4" customWidth="1"/>
+    <col min="35" max="35" width="7" customWidth="1"/>
+    <col min="36" max="36" width="6" customWidth="1"/>
+    <col min="37" max="37" width="5" customWidth="1"/>
+    <col min="38" max="38" width="17.28515625" customWidth="1"/>
+    <col min="39" max="39" width="23.28515625" customWidth="1"/>
+    <col min="40" max="40" width="21.5703125" customWidth="1"/>
+    <col min="41" max="44" width="12" bestFit="1" customWidth="1"/>
+    <col min="45" max="46" width="11" bestFit="1" customWidth="1"/>
+    <col min="47" max="48" width="12" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="23.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D3" s="4" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="4" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="6">
+        <v>151.05000000000001</v>
+      </c>
+      <c r="F4" s="6">
+        <v>339.47273409100001</v>
+      </c>
+    </row>
+    <row r="5" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="6">
+        <v>4511.8999999999996</v>
+      </c>
+      <c r="F5" s="6">
+        <v>178.960706496</v>
+      </c>
+    </row>
+    <row r="6" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="6">
+        <v>2372</v>
+      </c>
+      <c r="F6" s="6">
+        <v>53.994063424000004</v>
+      </c>
+    </row>
+    <row r="7" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="6">
+        <v>761.7</v>
+      </c>
+      <c r="F7" s="6">
+        <v>72.545551140000001</v>
+      </c>
+    </row>
+    <row r="8" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="6">
+        <v>18700</v>
+      </c>
+      <c r="F8" s="6">
+        <v>22.872848530000002</v>
+      </c>
+    </row>
+    <row r="9" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="6">
+        <v>3609.85</v>
+      </c>
+      <c r="F9" s="6">
+        <v>135.021668097</v>
+      </c>
+    </row>
+    <row r="10" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="6">
+        <v>2735.05</v>
+      </c>
+      <c r="F10" s="6">
+        <v>109.80906459000001</v>
+      </c>
+    </row>
+    <row r="11" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="6">
+        <v>1277.0999999999999</v>
+      </c>
+      <c r="F11" s="6">
+        <v>173.73914195399999</v>
+      </c>
+    </row>
+    <row r="12" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="6">
+        <v>9277</v>
+      </c>
+      <c r="F12" s="6">
+        <v>436.37877692500001</v>
+      </c>
+    </row>
+    <row r="13" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="6">
+        <v>81.5</v>
+      </c>
+      <c r="F13" s="6">
+        <v>67.266768808999998</v>
+      </c>
+    </row>
+    <row r="14" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="6">
+        <v>95563.25</v>
+      </c>
+      <c r="F14" s="6">
+        <v>130.86874133499998</v>
+      </c>
+    </row>
+    <row r="15" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="6">
+        <v>13989.6</v>
+      </c>
+      <c r="F15" s="6">
+        <v>2418.0165173790001</v>
+      </c>
+    </row>
+    <row r="16" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="6">
+        <v>532</v>
+      </c>
+      <c r="F16" s="6">
+        <v>128.35576490399998</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="6">
+        <v>520.6</v>
+      </c>
+      <c r="F17" s="6">
+        <v>400.53298479599999</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="6">
+        <v>2685</v>
+      </c>
+      <c r="F18" s="6">
+        <v>32.625713867000002</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="6">
+        <v>1275.7</v>
+      </c>
+      <c r="F19" s="6">
+        <v>135.57198842100001</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D20" s="5" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E20" s="6">
+        <v>158043.30000000002</v>
+      </c>
+      <c r="F20" s="6">
+        <v>4836.0330347580011</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState columnSort="1" ref="D3:F20">
+    <sortCondition ref="F3"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId3"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="D207" sqref="D207"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9703,11 +14325,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C502"/>
   <sheetViews>
-    <sheetView topLeftCell="A467" workbookViewId="0">
+    <sheetView topLeftCell="A401" workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>

--- a/NIFTY/STOCK.xlsx
+++ b/NIFTY/STOCK.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot-Chart" sheetId="19" r:id="rId1"/>
@@ -17,7 +17,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="9" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -3385,8 +3385,8 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="2" name="Industry"/>
@@ -3403,7 +3403,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -6814,7 +6814,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="D3:F20" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" showAll="0">
@@ -7963,7 +7963,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D3:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -8226,7 +8226,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
